--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" state="visible" r:id="rId3"/>
@@ -3488,8 +3488,8 @@
   </sheetPr>
   <dimension ref="A1:N315"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B246" activeCellId="1" sqref="C246:D246 B246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17079,8 +17079,8 @@
   </sheetPr>
   <dimension ref="A1:E315"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C246" activeCellId="0" sqref="C246:D246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21160,13 +21160,13 @@
         <v>688</v>
       </c>
       <c r="B246" s="20" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="D246" s="20" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E246" s="20" t="s">
         <v>301</v>
@@ -22346,8 +22346,8 @@
   </sheetPr>
   <dimension ref="A1:J315"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B232" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D241" activeCellId="0" sqref="D241"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B241" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B245" activeCellId="1" sqref="C246:D246 B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8737" uniqueCount="1238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8863" uniqueCount="1238">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -4558,8 +4558,8 @@
   </sheetPr>
   <dimension ref="A1:N1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E428" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F446" activeCellId="0" sqref="F446"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A431" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A317" activeCellId="1" sqref="A455:B457 A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23716,8 +23716,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A433" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A386" activeCellId="0" sqref="A386"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E301" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A386" activeCellId="1" sqref="A455:B457 A386"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31144,8 +31144,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A439" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A420" activeCellId="0" sqref="A420"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E287" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A455" activeCellId="0" sqref="A455:B457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -41290,107 +41290,116 @@
       </c>
     </row>
     <row r="317" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="30" t="s">
+      <c r="A317" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B317" s="30" t="s">
         <v>853</v>
       </c>
-      <c r="B317" s="31" t="s">
+      <c r="C317" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C317" s="31" t="n">
+      <c r="D317" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D317" s="31" t="n">
+      <c r="E317" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E317" s="31" t="n">
+      <c r="F317" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F317" s="31" t="n">
+      <c r="G317" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G317" s="31" t="n">
+      <c r="H317" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H317" s="31" t="n">
-        <f aca="false">SUM(C317:G317)</f>
+      <c r="I317" s="31" t="n">
+        <f aca="false">SUM(D317:H317)</f>
         <v>25</v>
       </c>
-      <c r="I317" s="32" t="s">
+      <c r="J317" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="30" t="s">
+      <c r="A318" s="14" t="s">
+        <v>859</v>
+      </c>
+      <c r="B318" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="B318" s="31" t="s">
+      <c r="C318" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C318" s="31" t="n">
+      <c r="D318" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D318" s="31" t="n">
+      <c r="E318" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E318" s="31" t="n">
+      <c r="F318" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F318" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G318" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H318" s="31" t="n">
-        <f aca="false">SUM(C318:G318)</f>
+        <v>3</v>
+      </c>
+      <c r="I318" s="31" t="n">
+        <f aca="false">SUM(D318:H318)</f>
         <v>22</v>
       </c>
-      <c r="I318" s="32" t="s">
+      <c r="J318" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="30" t="s">
+      <c r="A319" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="B319" s="30" t="s">
         <v>862</v>
       </c>
-      <c r="B319" s="31" t="s">
+      <c r="C319" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C319" s="31" t="n">
+      <c r="D319" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D319" s="31" t="n">
+      <c r="E319" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E319" s="31" t="n">
+      <c r="F319" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F319" s="31" t="n">
+      <c r="G319" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G319" s="31" t="n">
+      <c r="H319" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H319" s="31" t="n">
-        <f aca="false">SUM(C319:G319)</f>
+      <c r="I319" s="31" t="n">
+        <f aca="false">SUM(D319:H319)</f>
         <v>19</v>
       </c>
-      <c r="I319" s="32" t="s">
+      <c r="J319" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="30" t="s">
+      <c r="A320" s="14" t="s">
+        <v>863</v>
+      </c>
+      <c r="B320" s="30" t="s">
         <v>864</v>
       </c>
-      <c r="B320" s="31" t="s">
+      <c r="C320" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C320" s="31" t="n">
+      <c r="D320" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D320" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E320" s="31" t="n">
         <v>5</v>
@@ -41399,88 +41408,97 @@
         <v>5</v>
       </c>
       <c r="G320" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H320" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H320" s="31" t="n">
-        <f aca="false">SUM(C320:G320)</f>
+      <c r="I320" s="31" t="n">
+        <f aca="false">SUM(D320:H320)</f>
         <v>23</v>
       </c>
-      <c r="I320" s="32" t="s">
+      <c r="J320" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="30" t="s">
+      <c r="A321" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="B321" s="30" t="s">
         <v>868</v>
       </c>
-      <c r="B321" s="31" t="s">
+      <c r="C321" s="31" t="s">
         <v>1227</v>
       </c>
-      <c r="C321" s="31" t="n">
+      <c r="D321" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="D321" s="31" t="n">
+      <c r="E321" s="31" t="n">
         <v>9</v>
-      </c>
-      <c r="E321" s="31" t="n">
-        <v>8</v>
       </c>
       <c r="F321" s="31" t="n">
         <v>8</v>
       </c>
       <c r="G321" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="H321" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="H321" s="31" t="n">
-        <f aca="false">SUM(C321:G321)</f>
+      <c r="I321" s="31" t="n">
+        <f aca="false">SUM(D321:H321)</f>
         <v>42</v>
       </c>
-      <c r="I321" s="32" t="s">
+      <c r="J321" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="30" t="s">
+      <c r="A322" s="14" t="s">
+        <v>870</v>
+      </c>
+      <c r="B322" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="B322" s="31" t="s">
+      <c r="C322" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C322" s="31" t="n">
+      <c r="D322" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D322" s="31" t="n">
+      <c r="E322" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E322" s="31" t="n">
+      <c r="F322" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F322" s="31" t="n">
+      <c r="G322" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G322" s="31" t="n">
+      <c r="H322" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H322" s="31" t="n">
-        <f aca="false">SUM(C322:G322)</f>
+      <c r="I322" s="31" t="n">
+        <f aca="false">SUM(D322:H322)</f>
         <v>21</v>
       </c>
-      <c r="I322" s="32" t="s">
+      <c r="J322" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="30" t="s">
+      <c r="A323" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="B323" s="30" t="s">
         <v>873</v>
       </c>
-      <c r="B323" s="31" t="s">
+      <c r="C323" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C323" s="31" t="n">
+      <c r="D323" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D323" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E323" s="31" t="n">
         <v>5</v>
@@ -41489,268 +41507,295 @@
         <v>5</v>
       </c>
       <c r="G323" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H323" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H323" s="31" t="n">
-        <f aca="false">SUM(C323:G323)</f>
+      <c r="I323" s="31" t="n">
+        <f aca="false">SUM(D323:H323)</f>
         <v>23</v>
       </c>
-      <c r="I323" s="32" t="s">
+      <c r="J323" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="30" t="s">
+      <c r="A324" s="14" t="s">
+        <v>874</v>
+      </c>
+      <c r="B324" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="B324" s="31" t="s">
+      <c r="C324" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C324" s="31" t="n">
+      <c r="D324" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D324" s="31" t="n">
+      <c r="E324" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E324" s="31" t="n">
+      <c r="F324" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F324" s="31" t="n">
+      <c r="G324" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G324" s="31" t="n">
+      <c r="H324" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H324" s="31" t="n">
-        <f aca="false">SUM(C324:G324)</f>
+      <c r="I324" s="31" t="n">
+        <f aca="false">SUM(D324:H324)</f>
         <v>25</v>
       </c>
-      <c r="I324" s="32" t="s">
+      <c r="J324" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="30" t="s">
+      <c r="A325" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="B325" s="30" t="s">
         <v>878</v>
       </c>
-      <c r="B325" s="31" t="s">
+      <c r="C325" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C325" s="31" t="n">
+      <c r="D325" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D325" s="31" t="n">
+      <c r="E325" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E325" s="31" t="n">
+      <c r="F325" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F325" s="31" t="n">
+      <c r="G325" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G325" s="31" t="n">
+      <c r="H325" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H325" s="31" t="n">
-        <f aca="false">SUM(C325:G325)</f>
+      <c r="I325" s="31" t="n">
+        <f aca="false">SUM(D325:H325)</f>
         <v>19</v>
       </c>
-      <c r="I325" s="32" t="s">
+      <c r="J325" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="30" t="s">
+      <c r="A326" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="B326" s="30" t="s">
         <v>881</v>
       </c>
-      <c r="B326" s="31" t="s">
+      <c r="C326" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C326" s="31" t="n">
+      <c r="D326" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D326" s="31" t="n">
+      <c r="E326" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E326" s="31" t="n">
+      <c r="F326" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F326" s="31" t="n">
+      <c r="G326" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G326" s="31" t="n">
+      <c r="H326" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H326" s="31" t="n">
-        <f aca="false">SUM(C326:G326)</f>
+      <c r="I326" s="31" t="n">
+        <f aca="false">SUM(D326:H326)</f>
         <v>19</v>
       </c>
-      <c r="I326" s="32" t="s">
+      <c r="J326" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="30" t="s">
+      <c r="A327" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="B327" s="30" t="s">
         <v>884</v>
       </c>
-      <c r="B327" s="31" t="s">
+      <c r="C327" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C327" s="31" t="n">
+      <c r="D327" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D327" s="31" t="n">
+      <c r="E327" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E327" s="31" t="n">
+      <c r="F327" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F327" s="31" t="n">
+      <c r="G327" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G327" s="31" t="n">
+      <c r="H327" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H327" s="31" t="n">
-        <f aca="false">SUM(C327:G327)</f>
+      <c r="I327" s="31" t="n">
+        <f aca="false">SUM(D327:H327)</f>
         <v>19</v>
       </c>
-      <c r="I327" s="32" t="s">
+      <c r="J327" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="30" t="s">
+      <c r="A328" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="B328" s="30" t="s">
         <v>887</v>
       </c>
-      <c r="B328" s="31" t="s">
+      <c r="C328" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C328" s="31" t="n">
+      <c r="D328" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D328" s="31" t="n">
+      <c r="E328" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E328" s="31" t="n">
+      <c r="F328" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F328" s="31" t="n">
+      <c r="G328" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G328" s="31" t="n">
+      <c r="H328" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H328" s="31" t="n">
-        <f aca="false">SUM(C328:G328)</f>
+      <c r="I328" s="31" t="n">
+        <f aca="false">SUM(D328:H328)</f>
         <v>25</v>
       </c>
-      <c r="I328" s="32" t="s">
+      <c r="J328" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="30" t="s">
+      <c r="A329" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="B329" s="30" t="s">
         <v>891</v>
       </c>
-      <c r="B329" s="31" t="s">
+      <c r="C329" s="31" t="s">
         <v>1228</v>
-      </c>
-      <c r="C329" s="31" t="n">
-        <v>8</v>
       </c>
       <c r="D329" s="31" t="n">
         <v>8</v>
       </c>
       <c r="E329" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F329" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F329" s="31" t="n">
+      <c r="G329" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="G329" s="31" t="n">
+      <c r="H329" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="H329" s="31" t="n">
-        <f aca="false">SUM(C329:G329)</f>
+      <c r="I329" s="31" t="n">
+        <f aca="false">SUM(D329:H329)</f>
         <v>39</v>
       </c>
-      <c r="I329" s="32" t="s">
+      <c r="J329" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="30" t="s">
+      <c r="A330" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="B330" s="30" t="s">
         <v>895</v>
       </c>
-      <c r="B330" s="31" t="s">
+      <c r="C330" s="31" t="s">
         <v>1229</v>
       </c>
-      <c r="C330" s="31" t="n">
+      <c r="D330" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="D330" s="31" t="n">
+      <c r="E330" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E330" s="31" t="n">
+      <c r="F330" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="F330" s="31" t="n">
+      <c r="G330" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="G330" s="31" t="n">
+      <c r="H330" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="H330" s="31" t="n">
-        <f aca="false">SUM(C330:G330)</f>
+      <c r="I330" s="31" t="n">
+        <f aca="false">SUM(D330:H330)</f>
         <v>41</v>
       </c>
-      <c r="I330" s="32" t="s">
+      <c r="J330" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="30" t="s">
+      <c r="A331" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="B331" s="30" t="s">
         <v>897</v>
       </c>
-      <c r="B331" s="31" t="s">
+      <c r="C331" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C331" s="31" t="n">
+      <c r="D331" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D331" s="31" t="n">
+      <c r="E331" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E331" s="31" t="n">
+      <c r="F331" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F331" s="31" t="n">
+      <c r="G331" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G331" s="31" t="n">
+      <c r="H331" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H331" s="31" t="n">
-        <f aca="false">SUM(C331:G331)</f>
+      <c r="I331" s="31" t="n">
+        <f aca="false">SUM(D331:H331)</f>
         <v>21</v>
       </c>
-      <c r="I331" s="32" t="s">
+      <c r="J331" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="30" t="s">
+      <c r="A332" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="B332" s="30" t="s">
         <v>900</v>
       </c>
-      <c r="B332" s="31" t="s">
+      <c r="C332" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C332" s="31" t="n">
+      <c r="D332" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D332" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E332" s="31" t="n">
         <v>5</v>
@@ -41759,358 +41804,394 @@
         <v>5</v>
       </c>
       <c r="G332" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H332" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H332" s="31" t="n">
-        <f aca="false">SUM(C332:G332)</f>
+      <c r="I332" s="31" t="n">
+        <f aca="false">SUM(D332:H332)</f>
         <v>23</v>
       </c>
-      <c r="I332" s="32" t="s">
+      <c r="J332" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="30" t="s">
+      <c r="A333" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="B333" s="30" t="s">
         <v>903</v>
       </c>
-      <c r="B333" s="31" t="s">
+      <c r="C333" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C333" s="31" t="n">
+      <c r="D333" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D333" s="31" t="n">
+      <c r="E333" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E333" s="31" t="n">
+      <c r="F333" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F333" s="31" t="n">
+      <c r="G333" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G333" s="31" t="n">
+      <c r="H333" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H333" s="31" t="n">
-        <f aca="false">SUM(C333:G333)</f>
+      <c r="I333" s="31" t="n">
+        <f aca="false">SUM(D333:H333)</f>
         <v>21</v>
       </c>
-      <c r="I333" s="32" t="s">
+      <c r="J333" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="30" t="s">
+      <c r="A334" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="B334" s="30" t="s">
         <v>905</v>
       </c>
-      <c r="B334" s="31" t="s">
+      <c r="C334" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C334" s="31" t="n">
+      <c r="D334" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D334" s="31" t="n">
+      <c r="E334" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E334" s="31" t="n">
+      <c r="F334" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F334" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G334" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H334" s="31" t="n">
-        <f aca="false">SUM(C334:G334)</f>
+        <v>3</v>
+      </c>
+      <c r="I334" s="31" t="n">
+        <f aca="false">SUM(D334:H334)</f>
         <v>22</v>
       </c>
-      <c r="I334" s="32" t="s">
+      <c r="J334" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="30" t="s">
+      <c r="A335" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="B335" s="30" t="s">
         <v>907</v>
       </c>
-      <c r="B335" s="31" t="s">
+      <c r="C335" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C335" s="31" t="n">
+      <c r="D335" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D335" s="31" t="n">
+      <c r="E335" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E335" s="31" t="n">
+      <c r="F335" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F335" s="31" t="n">
+      <c r="G335" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G335" s="31" t="n">
+      <c r="H335" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H335" s="31" t="n">
-        <f aca="false">SUM(C335:G335)</f>
+      <c r="I335" s="31" t="n">
+        <f aca="false">SUM(D335:H335)</f>
         <v>19</v>
       </c>
-      <c r="I335" s="32" t="s">
+      <c r="J335" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="30" t="s">
+      <c r="A336" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B336" s="30" t="s">
         <v>908</v>
       </c>
-      <c r="B336" s="31" t="s">
+      <c r="C336" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C336" s="31" t="n">
+      <c r="D336" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D336" s="31" t="n">
+      <c r="E336" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E336" s="31" t="n">
+      <c r="F336" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F336" s="31" t="n">
+      <c r="G336" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G336" s="31" t="n">
+      <c r="H336" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H336" s="31" t="n">
-        <f aca="false">SUM(C336:G336)</f>
+      <c r="I336" s="31" t="n">
+        <f aca="false">SUM(D336:H336)</f>
         <v>21</v>
       </c>
-      <c r="I336" s="32" t="s">
+      <c r="J336" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="30" t="s">
+      <c r="A337" s="14" t="s">
+        <v>911</v>
+      </c>
+      <c r="B337" s="30" t="s">
         <v>912</v>
       </c>
-      <c r="B337" s="31" t="s">
+      <c r="C337" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C337" s="31" t="n">
+      <c r="D337" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D337" s="31" t="n">
+      <c r="E337" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E337" s="31" t="n">
+      <c r="F337" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F337" s="31" t="n">
+      <c r="G337" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G337" s="31" t="n">
+      <c r="H337" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H337" s="31" t="n">
-        <f aca="false">SUM(C337:G337)</f>
+      <c r="I337" s="31" t="n">
+        <f aca="false">SUM(D337:H337)</f>
         <v>19</v>
       </c>
-      <c r="I337" s="32" t="s">
+      <c r="J337" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="30" t="s">
+      <c r="A338" s="14" t="s">
+        <v>913</v>
+      </c>
+      <c r="B338" s="30" t="s">
         <v>914</v>
       </c>
-      <c r="B338" s="31" t="s">
+      <c r="C338" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C338" s="31" t="n">
+      <c r="D338" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="D338" s="31" t="n">
+      <c r="E338" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="E338" s="31" t="n">
+      <c r="F338" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F338" s="31" t="n">
+      <c r="G338" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="G338" s="31" t="n">
+      <c r="H338" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="H338" s="31" t="n">
-        <f aca="false">SUM(C338:G338)</f>
+      <c r="I338" s="31" t="n">
+        <f aca="false">SUM(D338:H338)</f>
         <v>40</v>
       </c>
-      <c r="I338" s="32" t="s">
+      <c r="J338" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="30" t="s">
+      <c r="A339" s="14" t="s">
+        <v>917</v>
+      </c>
+      <c r="B339" s="30" t="s">
         <v>918</v>
       </c>
-      <c r="B339" s="31" t="s">
+      <c r="C339" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C339" s="31" t="n">
+      <c r="D339" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D339" s="31" t="n">
+      <c r="E339" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E339" s="31" t="n">
+      <c r="F339" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F339" s="31" t="n">
+      <c r="G339" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G339" s="31" t="n">
+      <c r="H339" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H339" s="31" t="n">
-        <f aca="false">SUM(C339:G339)</f>
+      <c r="I339" s="31" t="n">
+        <f aca="false">SUM(D339:H339)</f>
         <v>25</v>
       </c>
-      <c r="I339" s="32" t="s">
+      <c r="J339" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="30" t="s">
+      <c r="A340" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="B340" s="30" t="s">
         <v>920</v>
       </c>
-      <c r="B340" s="31" t="s">
+      <c r="C340" s="31" t="s">
         <v>1230</v>
       </c>
-      <c r="C340" s="31" t="n">
+      <c r="D340" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="D340" s="31" t="n">
+      <c r="E340" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E340" s="31" t="n">
+      <c r="F340" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="F340" s="31" t="n">
+      <c r="G340" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="G340" s="31" t="n">
+      <c r="H340" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="H340" s="31" t="n">
-        <f aca="false">SUM(C340:G340)</f>
+      <c r="I340" s="31" t="n">
+        <f aca="false">SUM(D340:H340)</f>
         <v>41</v>
       </c>
-      <c r="I340" s="32" t="s">
+      <c r="J340" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="30" t="s">
+      <c r="A341" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="B341" s="30" t="s">
         <v>923</v>
       </c>
-      <c r="B341" s="31" t="s">
+      <c r="C341" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C341" s="31" t="n">
+      <c r="D341" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D341" s="31" t="n">
+      <c r="E341" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E341" s="31" t="n">
+      <c r="F341" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F341" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G341" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H341" s="31" t="n">
-        <f aca="false">SUM(C341:G341)</f>
+        <v>3</v>
+      </c>
+      <c r="I341" s="31" t="n">
+        <f aca="false">SUM(D341:H341)</f>
         <v>22</v>
       </c>
-      <c r="I341" s="32" t="s">
+      <c r="J341" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="30" t="s">
+      <c r="A342" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="B342" s="30" t="s">
         <v>926</v>
       </c>
-      <c r="B342" s="31" t="s">
+      <c r="C342" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C342" s="31" t="n">
+      <c r="D342" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D342" s="31" t="n">
+      <c r="E342" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E342" s="31" t="n">
+      <c r="F342" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F342" s="31" t="n">
+      <c r="G342" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G342" s="31" t="n">
+      <c r="H342" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H342" s="31" t="n">
-        <f aca="false">SUM(C342:G342)</f>
+      <c r="I342" s="31" t="n">
+        <f aca="false">SUM(D342:H342)</f>
         <v>25</v>
       </c>
-      <c r="I342" s="32" t="s">
+      <c r="J342" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="30" t="s">
+      <c r="A343" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="B343" s="30" t="s">
         <v>928</v>
       </c>
-      <c r="B343" s="31" t="s">
+      <c r="C343" s="31" t="s">
         <v>1231</v>
       </c>
-      <c r="C343" s="31" t="n">
+      <c r="D343" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="D343" s="31" t="n">
+      <c r="E343" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="E343" s="31" t="n">
+      <c r="F343" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="F343" s="31" t="n">
-        <v>10</v>
       </c>
       <c r="G343" s="31" t="n">
         <v>10</v>
       </c>
       <c r="H343" s="31" t="n">
-        <f aca="false">SUM(C343:G343)</f>
+        <v>10</v>
+      </c>
+      <c r="I343" s="31" t="n">
+        <f aca="false">SUM(D343:H343)</f>
         <v>43</v>
       </c>
-      <c r="I343" s="32" t="s">
+      <c r="J343" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="30" t="s">
+      <c r="A344" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="B344" s="30" t="s">
         <v>931</v>
       </c>
-      <c r="B344" s="31" t="s">
+      <c r="C344" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C344" s="31" t="n">
+      <c r="D344" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D344" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E344" s="31" t="n">
         <v>5</v>
@@ -42119,58 +42200,64 @@
         <v>5</v>
       </c>
       <c r="G344" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H344" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H344" s="31" t="n">
-        <f aca="false">SUM(C344:G344)</f>
+      <c r="I344" s="31" t="n">
+        <f aca="false">SUM(D344:H344)</f>
         <v>23</v>
       </c>
-      <c r="I344" s="32" t="s">
+      <c r="J344" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="30" t="s">
+      <c r="A345" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="B345" s="30" t="s">
         <v>934</v>
       </c>
-      <c r="B345" s="31" t="s">
+      <c r="C345" s="31" t="s">
         <v>1231</v>
       </c>
-      <c r="C345" s="31" t="n">
+      <c r="D345" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D345" s="31" t="n">
+      <c r="E345" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E345" s="31" t="n">
+      <c r="F345" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="F345" s="31" t="n">
+      <c r="G345" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="G345" s="31" t="n">
+      <c r="H345" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="H345" s="31" t="n">
-        <f aca="false">SUM(C345:G345)</f>
+      <c r="I345" s="31" t="n">
+        <f aca="false">SUM(D345:H345)</f>
         <v>42</v>
       </c>
-      <c r="I345" s="32" t="s">
+      <c r="J345" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="30" t="s">
+      <c r="A346" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="B346" s="30" t="s">
         <v>936</v>
       </c>
-      <c r="B346" s="31" t="s">
+      <c r="C346" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C346" s="31" t="n">
+      <c r="D346" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D346" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E346" s="31" t="n">
         <v>5</v>
@@ -42179,208 +42266,229 @@
         <v>5</v>
       </c>
       <c r="G346" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H346" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H346" s="31" t="n">
-        <f aca="false">SUM(C346:G346)</f>
+      <c r="I346" s="31" t="n">
+        <f aca="false">SUM(D346:H346)</f>
         <v>23</v>
       </c>
-      <c r="I346" s="32" t="s">
+      <c r="J346" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="30" t="s">
+      <c r="A347" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="B347" s="30" t="s">
         <v>938</v>
       </c>
-      <c r="B347" s="31" t="s">
+      <c r="C347" s="31" t="s">
         <v>1232</v>
       </c>
-      <c r="C347" s="31" t="n">
+      <c r="D347" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="D347" s="31" t="n">
+      <c r="E347" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="E347" s="31" t="n">
+      <c r="F347" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F347" s="31" t="n">
+      <c r="G347" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="G347" s="31" t="n">
+      <c r="H347" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="H347" s="31" t="n">
-        <f aca="false">SUM(C347:G347)</f>
+      <c r="I347" s="31" t="n">
+        <f aca="false">SUM(D347:H347)</f>
         <v>40</v>
       </c>
-      <c r="I347" s="32" t="s">
+      <c r="J347" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="30" t="s">
+      <c r="A348" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="B348" s="30" t="s">
         <v>940</v>
       </c>
-      <c r="B348" s="31" t="s">
+      <c r="C348" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C348" s="31" t="n">
+      <c r="D348" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D348" s="31" t="n">
+      <c r="E348" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E348" s="31" t="n">
+      <c r="F348" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F348" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G348" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H348" s="31" t="n">
-        <f aca="false">SUM(C348:G348)</f>
+        <v>3</v>
+      </c>
+      <c r="I348" s="31" t="n">
+        <f aca="false">SUM(D348:H348)</f>
         <v>22</v>
       </c>
-      <c r="I348" s="32" t="s">
+      <c r="J348" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="30" t="s">
+      <c r="A349" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="B349" s="30" t="s">
         <v>943</v>
       </c>
-      <c r="B349" s="31" t="s">
+      <c r="C349" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C349" s="31" t="n">
+      <c r="D349" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D349" s="31" t="n">
+      <c r="E349" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E349" s="31" t="n">
+      <c r="F349" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F349" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G349" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H349" s="31" t="n">
-        <f aca="false">SUM(C349:G349)</f>
+        <v>3</v>
+      </c>
+      <c r="I349" s="31" t="n">
+        <f aca="false">SUM(D349:H349)</f>
         <v>22</v>
       </c>
-      <c r="I349" s="32" t="s">
+      <c r="J349" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="30" t="s">
+      <c r="A350" s="14" t="s">
+        <v>944</v>
+      </c>
+      <c r="B350" s="30" t="s">
         <v>945</v>
       </c>
-      <c r="B350" s="31" t="s">
+      <c r="C350" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C350" s="31" t="n">
+      <c r="D350" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D350" s="31" t="n">
+      <c r="E350" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E350" s="31" t="n">
+      <c r="F350" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F350" s="31" t="n">
+      <c r="G350" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G350" s="31" t="n">
+      <c r="H350" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H350" s="31" t="n">
-        <f aca="false">SUM(C350:G350)</f>
+      <c r="I350" s="31" t="n">
+        <f aca="false">SUM(D350:H350)</f>
         <v>21</v>
       </c>
-      <c r="I350" s="32" t="s">
+      <c r="J350" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="30" t="s">
+      <c r="A351" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="B351" s="30" t="s">
         <v>947</v>
       </c>
-      <c r="B351" s="31" t="s">
+      <c r="C351" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C351" s="31" t="n">
+      <c r="D351" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D351" s="31" t="n">
+      <c r="E351" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E351" s="31" t="n">
+      <c r="F351" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F351" s="31" t="n">
+      <c r="G351" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G351" s="31" t="n">
+      <c r="H351" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H351" s="31" t="n">
-        <f aca="false">SUM(C351:G351)</f>
+      <c r="I351" s="31" t="n">
+        <f aca="false">SUM(D351:H351)</f>
         <v>25</v>
       </c>
-      <c r="I351" s="32" t="s">
+      <c r="J351" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="30" t="s">
+      <c r="A352" s="14" t="s">
+        <v>948</v>
+      </c>
+      <c r="B352" s="30" t="s">
         <v>949</v>
       </c>
-      <c r="B352" s="31" t="s">
+      <c r="C352" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C352" s="31" t="n">
+      <c r="D352" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D352" s="31" t="n">
+      <c r="E352" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="E352" s="31" t="n">
+      <c r="F352" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F352" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G352" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H352" s="31" t="n">
-        <f aca="false">SUM(C352:G352)</f>
+        <v>3</v>
+      </c>
+      <c r="I352" s="31" t="n">
+        <f aca="false">SUM(D352:H352)</f>
         <v>20</v>
       </c>
-      <c r="I352" s="32" t="s">
+      <c r="J352" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="30" t="s">
+      <c r="A353" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="B353" s="30" t="s">
         <v>951</v>
       </c>
-      <c r="B353" s="31" t="s">
+      <c r="C353" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C353" s="31" t="n">
+      <c r="D353" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D353" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E353" s="31" t="n">
         <v>5</v>
@@ -42389,175 +42497,193 @@
         <v>5</v>
       </c>
       <c r="G353" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H353" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H353" s="31" t="n">
-        <f aca="false">SUM(C353:G353)</f>
+      <c r="I353" s="31" t="n">
+        <f aca="false">SUM(D353:H353)</f>
         <v>23</v>
       </c>
-      <c r="I353" s="32" t="s">
+      <c r="J353" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="30" t="s">
+      <c r="A354" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="B354" s="30" t="s">
         <v>954</v>
       </c>
-      <c r="B354" s="31" t="s">
+      <c r="C354" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C354" s="31" t="n">
+      <c r="D354" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D354" s="31" t="n">
+      <c r="E354" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E354" s="31" t="n">
+      <c r="F354" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F354" s="31" t="n">
+      <c r="G354" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G354" s="31" t="n">
+      <c r="H354" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H354" s="31" t="n">
-        <f aca="false">SUM(C354:G354)</f>
+      <c r="I354" s="31" t="n">
+        <f aca="false">SUM(D354:H354)</f>
         <v>21</v>
       </c>
-      <c r="I354" s="32" t="s">
+      <c r="J354" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="30" t="s">
+      <c r="A355" s="14" t="s">
+        <v>756</v>
+      </c>
+      <c r="B355" s="30" t="s">
         <v>955</v>
       </c>
-      <c r="B355" s="31" t="s">
+      <c r="C355" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C355" s="31" t="n">
+      <c r="D355" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D355" s="31" t="n">
+      <c r="E355" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E355" s="31" t="n">
+      <c r="F355" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F355" s="31" t="n">
+      <c r="G355" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G355" s="31" t="n">
+      <c r="H355" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H355" s="31" t="n">
-        <f aca="false">SUM(C355:G355)</f>
+      <c r="I355" s="31" t="n">
+        <f aca="false">SUM(D355:H355)</f>
         <v>25</v>
       </c>
-      <c r="I355" s="32" t="s">
+      <c r="J355" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="30" t="s">
+      <c r="A356" s="14" t="s">
+        <v>956</v>
+      </c>
+      <c r="B356" s="30" t="s">
         <v>957</v>
       </c>
-      <c r="B356" s="31" t="s">
+      <c r="C356" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C356" s="31" t="n">
+      <c r="D356" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D356" s="31" t="n">
+      <c r="E356" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E356" s="31" t="n">
+      <c r="F356" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F356" s="31" t="n">
+      <c r="G356" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G356" s="31" t="n">
+      <c r="H356" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H356" s="31" t="n">
-        <f aca="false">SUM(C356:G356)</f>
+      <c r="I356" s="31" t="n">
+        <f aca="false">SUM(D356:H356)</f>
         <v>19</v>
       </c>
-      <c r="I356" s="32" t="s">
+      <c r="J356" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="30" t="s">
+      <c r="A357" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="B357" s="30" t="s">
         <v>959</v>
       </c>
-      <c r="B357" s="31" t="s">
+      <c r="C357" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C357" s="31" t="n">
+      <c r="D357" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D357" s="31" t="n">
+      <c r="E357" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E357" s="31" t="n">
+      <c r="F357" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F357" s="31" t="n">
+      <c r="G357" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G357" s="31" t="n">
+      <c r="H357" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H357" s="31" t="n">
-        <f aca="false">SUM(C357:G357)</f>
+      <c r="I357" s="31" t="n">
+        <f aca="false">SUM(D357:H357)</f>
         <v>25</v>
       </c>
-      <c r="I357" s="32" t="s">
+      <c r="J357" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="30" t="s">
+      <c r="A358" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="B358" s="30" t="s">
         <v>962</v>
       </c>
-      <c r="B358" s="31" t="s">
+      <c r="C358" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C358" s="31" t="n">
+      <c r="D358" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D358" s="31" t="n">
+      <c r="E358" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E358" s="31" t="n">
+      <c r="F358" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F358" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G358" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H358" s="31" t="n">
-        <f aca="false">SUM(C358:G358)</f>
+        <v>3</v>
+      </c>
+      <c r="I358" s="31" t="n">
+        <f aca="false">SUM(D358:H358)</f>
         <v>22</v>
       </c>
-      <c r="I358" s="32" t="s">
+      <c r="J358" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="30" t="s">
+      <c r="A359" s="14" t="s">
+        <v>963</v>
+      </c>
+      <c r="B359" s="30" t="s">
         <v>964</v>
       </c>
-      <c r="B359" s="31" t="s">
+      <c r="C359" s="31" t="s">
         <v>1233</v>
-      </c>
-      <c r="C359" s="31" t="n">
-        <v>9</v>
       </c>
       <c r="D359" s="31" t="n">
         <v>9</v>
@@ -42572,85 +42698,94 @@
         <v>9</v>
       </c>
       <c r="H359" s="31" t="n">
-        <f aca="false">SUM(C359:G359)</f>
+        <v>9</v>
+      </c>
+      <c r="I359" s="31" t="n">
+        <f aca="false">SUM(D359:H359)</f>
         <v>45</v>
       </c>
-      <c r="I359" s="32" t="s">
+      <c r="J359" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="30" t="s">
+      <c r="A360" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="B360" s="30" t="s">
         <v>967</v>
       </c>
-      <c r="B360" s="31" t="s">
+      <c r="C360" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C360" s="31" t="n">
+      <c r="D360" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D360" s="31" t="n">
+      <c r="E360" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E360" s="31" t="n">
+      <c r="F360" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F360" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G360" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H360" s="31" t="n">
-        <f aca="false">SUM(C360:G360)</f>
+        <v>3</v>
+      </c>
+      <c r="I360" s="31" t="n">
+        <f aca="false">SUM(D360:H360)</f>
         <v>22</v>
       </c>
-      <c r="I360" s="32" t="s">
+      <c r="J360" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="30" t="s">
+      <c r="A361" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="B361" s="30" t="s">
         <v>970</v>
       </c>
-      <c r="B361" s="31" t="s">
+      <c r="C361" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C361" s="31" t="n">
+      <c r="D361" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D361" s="31" t="n">
+      <c r="E361" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E361" s="31" t="n">
+      <c r="F361" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F361" s="31" t="n">
+      <c r="G361" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G361" s="31" t="n">
+      <c r="H361" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H361" s="31" t="n">
-        <f aca="false">SUM(C361:G361)</f>
+      <c r="I361" s="31" t="n">
+        <f aca="false">SUM(D361:H361)</f>
         <v>21</v>
       </c>
-      <c r="I361" s="32" t="s">
+      <c r="J361" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="30" t="s">
+      <c r="A362" s="14" t="s">
+        <v>971</v>
+      </c>
+      <c r="B362" s="30" t="s">
         <v>972</v>
       </c>
-      <c r="B362" s="31" t="s">
+      <c r="C362" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C362" s="31" t="n">
+      <c r="D362" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D362" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E362" s="31" t="n">
         <v>5</v>
@@ -42659,178 +42794,196 @@
         <v>5</v>
       </c>
       <c r="G362" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H362" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H362" s="31" t="n">
-        <f aca="false">SUM(C362:G362)</f>
+      <c r="I362" s="31" t="n">
+        <f aca="false">SUM(D362:H362)</f>
         <v>23</v>
       </c>
-      <c r="I362" s="32" t="s">
+      <c r="J362" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="30" t="s">
+      <c r="A363" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="B363" s="30" t="s">
         <v>974</v>
       </c>
-      <c r="B363" s="31" t="s">
+      <c r="C363" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C363" s="31" t="n">
+      <c r="D363" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D363" s="31" t="n">
+      <c r="E363" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E363" s="31" t="n">
+      <c r="F363" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F363" s="31" t="n">
+      <c r="G363" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G363" s="31" t="n">
+      <c r="H363" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H363" s="31" t="n">
-        <f aca="false">SUM(C363:G363)</f>
+      <c r="I363" s="31" t="n">
+        <f aca="false">SUM(D363:H363)</f>
         <v>25</v>
       </c>
-      <c r="I363" s="32" t="s">
+      <c r="J363" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="30" t="s">
+      <c r="A364" s="14" t="s">
+        <v>975</v>
+      </c>
+      <c r="B364" s="30" t="s">
         <v>976</v>
       </c>
-      <c r="B364" s="31" t="s">
+      <c r="C364" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C364" s="31" t="n">
+      <c r="D364" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D364" s="31" t="n">
+      <c r="E364" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E364" s="31" t="n">
+      <c r="F364" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F364" s="31" t="n">
+      <c r="G364" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G364" s="31" t="n">
+      <c r="H364" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H364" s="31" t="n">
-        <f aca="false">SUM(C364:G364)</f>
+      <c r="I364" s="31" t="n">
+        <f aca="false">SUM(D364:H364)</f>
         <v>25</v>
       </c>
-      <c r="I364" s="32" t="s">
+      <c r="J364" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="30" t="s">
+      <c r="A365" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="B365" s="30" t="s">
         <v>979</v>
       </c>
-      <c r="B365" s="31" t="s">
+      <c r="C365" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C365" s="31" t="n">
+      <c r="D365" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D365" s="31" t="n">
+      <c r="E365" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E365" s="31" t="n">
+      <c r="F365" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F365" s="31" t="n">
+      <c r="G365" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G365" s="31" t="n">
+      <c r="H365" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H365" s="31" t="n">
-        <f aca="false">SUM(C365:G365)</f>
+      <c r="I365" s="31" t="n">
+        <f aca="false">SUM(D365:H365)</f>
         <v>24</v>
       </c>
-      <c r="I365" s="32" t="s">
+      <c r="J365" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="30" t="s">
+      <c r="A366" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="B366" s="30" t="s">
         <v>981</v>
       </c>
-      <c r="B366" s="31" t="s">
+      <c r="C366" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C366" s="31" t="n">
+      <c r="D366" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="D366" s="31" t="n">
+      <c r="E366" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E366" s="31" t="n">
+      <c r="F366" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="F366" s="31" t="n">
+      <c r="G366" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G366" s="31" t="n">
+      <c r="H366" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H366" s="31" t="n">
-        <f aca="false">SUM(C366:G366)</f>
+      <c r="I366" s="31" t="n">
+        <f aca="false">SUM(D366:H366)</f>
         <v>24</v>
       </c>
-      <c r="I366" s="32" t="s">
+      <c r="J366" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="30" t="s">
+      <c r="A367" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="B367" s="30" t="s">
         <v>983</v>
       </c>
-      <c r="B367" s="31" t="s">
+      <c r="C367" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C367" s="31" t="n">
+      <c r="D367" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D367" s="31" t="n">
+      <c r="E367" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E367" s="31" t="n">
+      <c r="F367" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F367" s="31" t="n">
+      <c r="G367" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G367" s="31" t="n">
+      <c r="H367" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H367" s="31" t="n">
-        <f aca="false">SUM(C367:G367)</f>
+      <c r="I367" s="31" t="n">
+        <f aca="false">SUM(D367:H367)</f>
         <v>21</v>
       </c>
-      <c r="I367" s="32" t="s">
+      <c r="J367" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="30" t="s">
+      <c r="A368" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="B368" s="30" t="s">
         <v>985</v>
       </c>
-      <c r="B368" s="31" t="s">
+      <c r="C368" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C368" s="31" t="n">
+      <c r="D368" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D368" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E368" s="31" t="n">
         <v>5</v>
@@ -42839,58 +42992,64 @@
         <v>5</v>
       </c>
       <c r="G368" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H368" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H368" s="31" t="n">
-        <f aca="false">SUM(C368:G368)</f>
+      <c r="I368" s="31" t="n">
+        <f aca="false">SUM(D368:H368)</f>
         <v>23</v>
       </c>
-      <c r="I368" s="32" t="s">
+      <c r="J368" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="30" t="s">
+      <c r="A369" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="B369" s="30" t="s">
         <v>987</v>
       </c>
-      <c r="B369" s="31" t="s">
+      <c r="C369" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C369" s="31" t="n">
+      <c r="D369" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D369" s="31" t="n">
+      <c r="E369" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E369" s="31" t="n">
+      <c r="F369" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F369" s="31" t="n">
+      <c r="G369" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G369" s="31" t="n">
+      <c r="H369" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H369" s="31" t="n">
-        <f aca="false">SUM(C369:G369)</f>
+      <c r="I369" s="31" t="n">
+        <f aca="false">SUM(D369:H369)</f>
         <v>21</v>
       </c>
-      <c r="I369" s="32" t="s">
+      <c r="J369" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="30" t="s">
+      <c r="A370" s="14" t="s">
+        <v>988</v>
+      </c>
+      <c r="B370" s="30" t="s">
         <v>989</v>
       </c>
-      <c r="B370" s="31" t="s">
+      <c r="C370" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C370" s="31" t="n">
+      <c r="D370" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D370" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E370" s="31" t="n">
         <v>5</v>
@@ -42899,358 +43058,394 @@
         <v>5</v>
       </c>
       <c r="G370" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H370" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H370" s="31" t="n">
-        <f aca="false">SUM(C370:G370)</f>
+      <c r="I370" s="31" t="n">
+        <f aca="false">SUM(D370:H370)</f>
         <v>23</v>
       </c>
-      <c r="I370" s="32" t="s">
+      <c r="J370" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="30" t="s">
+      <c r="A371" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="B371" s="30" t="s">
         <v>991</v>
       </c>
-      <c r="B371" s="31" t="s">
+      <c r="C371" s="31" t="s">
         <v>1234</v>
       </c>
-      <c r="C371" s="31" t="n">
+      <c r="D371" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="D371" s="31" t="n">
+      <c r="E371" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E371" s="31" t="n">
+      <c r="F371" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="F371" s="31" t="n">
+      <c r="G371" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="G371" s="31" t="n">
+      <c r="H371" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="H371" s="31" t="n">
-        <f aca="false">SUM(C371:G371)</f>
+      <c r="I371" s="31" t="n">
+        <f aca="false">SUM(D371:H371)</f>
         <v>40</v>
       </c>
-      <c r="I371" s="32" t="s">
+      <c r="J371" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="30" t="s">
+      <c r="A372" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="B372" s="30" t="s">
         <v>995</v>
       </c>
-      <c r="B372" s="31" t="s">
+      <c r="C372" s="31" t="s">
         <v>1235</v>
       </c>
-      <c r="C372" s="31" t="n">
+      <c r="D372" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="D372" s="31" t="n">
+      <c r="E372" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="E372" s="31" t="n">
+      <c r="F372" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F372" s="31" t="n">
+      <c r="G372" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="G372" s="31" t="n">
+      <c r="H372" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="H372" s="31" t="n">
-        <f aca="false">SUM(C372:G372)</f>
+      <c r="I372" s="31" t="n">
+        <f aca="false">SUM(D372:H372)</f>
         <v>40</v>
       </c>
-      <c r="I372" s="32" t="s">
+      <c r="J372" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="30" t="s">
+      <c r="A373" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="B373" s="30" t="s">
         <v>998</v>
       </c>
-      <c r="B373" s="31" t="s">
+      <c r="C373" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C373" s="31" t="n">
+      <c r="D373" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D373" s="31" t="n">
+      <c r="E373" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E373" s="31" t="n">
+      <c r="F373" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F373" s="31" t="n">
+      <c r="G373" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G373" s="31" t="n">
+      <c r="H373" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H373" s="31" t="n">
-        <f aca="false">SUM(C373:G373)</f>
+      <c r="I373" s="31" t="n">
+        <f aca="false">SUM(D373:H373)</f>
         <v>19</v>
       </c>
-      <c r="I373" s="32" t="s">
+      <c r="J373" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="30" t="s">
+      <c r="A374" s="14" t="s">
+        <v>999</v>
+      </c>
+      <c r="B374" s="30" t="s">
         <v>1000</v>
       </c>
-      <c r="B374" s="31" t="s">
+      <c r="C374" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C374" s="31" t="n">
+      <c r="D374" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D374" s="31" t="n">
+      <c r="E374" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E374" s="31" t="n">
+      <c r="F374" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F374" s="31" t="n">
+      <c r="G374" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="G374" s="31" t="n">
+      <c r="H374" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="H374" s="31" t="n">
-        <f aca="false">SUM(C374:G374)</f>
+      <c r="I374" s="31" t="n">
+        <f aca="false">SUM(D374:H374)</f>
         <v>21</v>
       </c>
-      <c r="I374" s="32" t="s">
+      <c r="J374" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="30" t="s">
+      <c r="A375" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B375" s="30" t="s">
         <v>1003</v>
       </c>
-      <c r="B375" s="31" t="s">
+      <c r="C375" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C375" s="31" t="n">
+      <c r="D375" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D375" s="31" t="n">
+      <c r="E375" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E375" s="31" t="n">
+      <c r="F375" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F375" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G375" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H375" s="31" t="n">
-        <f aca="false">SUM(C375:G375)</f>
+        <v>3</v>
+      </c>
+      <c r="I375" s="31" t="n">
+        <f aca="false">SUM(D375:H375)</f>
         <v>22</v>
       </c>
-      <c r="I375" s="32" t="s">
+      <c r="J375" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="30" t="s">
+      <c r="A376" s="14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B376" s="30" t="s">
         <v>1005</v>
       </c>
-      <c r="B376" s="31" t="s">
+      <c r="C376" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C376" s="31" t="n">
+      <c r="D376" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D376" s="31" t="n">
+      <c r="E376" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E376" s="31" t="n">
+      <c r="F376" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F376" s="31" t="n">
+      <c r="G376" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G376" s="31" t="n">
+      <c r="H376" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H376" s="31" t="n">
-        <f aca="false">SUM(C376:G376)</f>
+      <c r="I376" s="31" t="n">
+        <f aca="false">SUM(D376:H376)</f>
         <v>19</v>
       </c>
-      <c r="I376" s="32" t="s">
+      <c r="J376" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="30" t="s">
+      <c r="A377" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B377" s="30" t="s">
         <v>1007</v>
       </c>
-      <c r="B377" s="31" t="s">
+      <c r="C377" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C377" s="31" t="n">
+      <c r="D377" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="D377" s="31" t="n">
+      <c r="E377" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="E377" s="31" t="n">
+      <c r="F377" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F377" s="31" t="n">
+      <c r="G377" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="G377" s="31" t="n">
+      <c r="H377" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H377" s="31" t="n">
-        <f aca="false">SUM(C377:G377)</f>
+      <c r="I377" s="31" t="n">
+        <f aca="false">SUM(D377:H377)</f>
         <v>24</v>
       </c>
-      <c r="I377" s="32" t="s">
+      <c r="J377" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="33" t="s">
+      <c r="A378" s="14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B378" s="33" t="s">
         <v>1010</v>
       </c>
-      <c r="B378" s="31" t="s">
+      <c r="C378" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C378" s="31" t="n">
+      <c r="D378" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="D378" s="31" t="n">
+      <c r="E378" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="E378" s="31" t="n">
+      <c r="F378" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="F378" s="31" t="n">
+      <c r="G378" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="G378" s="31" t="n">
+      <c r="H378" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="H378" s="31" t="n">
-        <f aca="false">SUM(C378:G378)</f>
+      <c r="I378" s="31" t="n">
+        <f aca="false">SUM(D378:H378)</f>
         <v>25</v>
       </c>
-      <c r="I378" s="32" t="s">
+      <c r="J378" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="30" t="s">
+      <c r="A379" s="14" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B379" s="30" t="s">
         <v>1013</v>
       </c>
-      <c r="B379" s="31" t="s">
+      <c r="C379" s="31" t="s">
         <v>1236</v>
-      </c>
-      <c r="C379" s="31" t="n">
-        <v>8</v>
       </c>
       <c r="D379" s="31" t="n">
         <v>8</v>
       </c>
       <c r="E379" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="F379" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="F379" s="31" t="n">
+      <c r="G379" s="31" t="n">
         <v>9</v>
       </c>
-      <c r="G379" s="31" t="n">
+      <c r="H379" s="31" t="n">
         <v>7</v>
       </c>
-      <c r="H379" s="31" t="n">
-        <f aca="false">SUM(C379:G379)</f>
+      <c r="I379" s="31" t="n">
+        <f aca="false">SUM(D379:H379)</f>
         <v>39</v>
       </c>
-      <c r="I379" s="32" t="s">
+      <c r="J379" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="30" t="s">
+      <c r="A380" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B380" s="30" t="s">
         <v>1016</v>
       </c>
-      <c r="B380" s="31" t="s">
+      <c r="C380" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C380" s="31" t="n">
+      <c r="D380" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D380" s="31" t="n">
+      <c r="E380" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E380" s="31" t="n">
+      <c r="F380" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F380" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G380" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H380" s="31" t="n">
-        <f aca="false">SUM(C380:G380)</f>
+        <v>3</v>
+      </c>
+      <c r="I380" s="31" t="n">
+        <f aca="false">SUM(D380:H380)</f>
         <v>22</v>
       </c>
-      <c r="I380" s="32" t="s">
+      <c r="J380" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="34" t="s">
+      <c r="A381" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B381" s="34" t="s">
         <v>1018</v>
       </c>
-      <c r="B381" s="31" t="s">
+      <c r="C381" s="31" t="s">
         <v>1237</v>
       </c>
-      <c r="C381" s="31" t="n">
+      <c r="D381" s="31" t="n">
         <v>8</v>
       </c>
-      <c r="D381" s="31" t="n">
+      <c r="E381" s="31" t="n">
         <v>9</v>
-      </c>
-      <c r="E381" s="31" t="n">
-        <v>8</v>
       </c>
       <c r="F381" s="31" t="n">
         <v>8</v>
       </c>
       <c r="G381" s="31" t="n">
+        <v>8</v>
+      </c>
+      <c r="H381" s="31" t="n">
         <v>10</v>
       </c>
-      <c r="H381" s="31" t="n">
-        <f aca="false">SUM(C381:G381)</f>
+      <c r="I381" s="31" t="n">
+        <f aca="false">SUM(D381:H381)</f>
         <v>43</v>
       </c>
-      <c r="I381" s="32" t="s">
+      <c r="J381" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="30" t="s">
+      <c r="A382" s="14" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B382" s="30" t="s">
         <v>1021</v>
       </c>
-      <c r="B382" s="31" t="s">
+      <c r="C382" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C382" s="31" t="n">
+      <c r="D382" s="31" t="n">
         <v>7</v>
-      </c>
-      <c r="D382" s="31" t="n">
-        <v>5</v>
       </c>
       <c r="E382" s="31" t="n">
         <v>5</v>
@@ -43259,78 +43454,87 @@
         <v>5</v>
       </c>
       <c r="G382" s="31" t="n">
+        <v>5</v>
+      </c>
+      <c r="H382" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="H382" s="31" t="n">
-        <f aca="false">SUM(C382:G382)</f>
+      <c r="I382" s="31" t="n">
+        <f aca="false">SUM(D382:H382)</f>
         <v>23</v>
       </c>
-      <c r="I382" s="32" t="s">
+      <c r="J382" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="30" t="s">
+      <c r="A383" s="14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B383" s="30" t="s">
         <v>1023</v>
       </c>
-      <c r="B383" s="31" t="s">
+      <c r="C383" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C383" s="31" t="n">
+      <c r="D383" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="D383" s="31" t="n">
+      <c r="E383" s="31" t="n">
         <v>6</v>
       </c>
-      <c r="E383" s="31" t="n">
+      <c r="F383" s="31" t="n">
         <v>5</v>
-      </c>
-      <c r="F383" s="31" t="n">
-        <v>3</v>
       </c>
       <c r="G383" s="31" t="n">
         <v>3</v>
       </c>
       <c r="H383" s="31" t="n">
-        <f aca="false">SUM(C383:G383)</f>
+        <v>3</v>
+      </c>
+      <c r="I383" s="31" t="n">
+        <f aca="false">SUM(D383:H383)</f>
         <v>22</v>
       </c>
-      <c r="I383" s="32" t="s">
+      <c r="J383" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="30" t="s">
+      <c r="A384" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B384" s="30" t="s">
         <v>1026</v>
       </c>
-      <c r="B384" s="31" t="s">
+      <c r="C384" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C384" s="31" t="n">
+      <c r="D384" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="D384" s="31" t="n">
+      <c r="E384" s="31" t="n">
         <v>5</v>
       </c>
-      <c r="E384" s="31" t="n">
+      <c r="F384" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="F384" s="31" t="n">
+      <c r="G384" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="G384" s="31" t="n">
+      <c r="H384" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="H384" s="31" t="n">
-        <f aca="false">SUM(C384:G384)</f>
+      <c r="I384" s="31" t="n">
+        <f aca="false">SUM(D384:H384)</f>
         <v>19</v>
       </c>
-      <c r="I384" s="32" t="s">
+      <c r="J384" s="32" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="18"/>
+      <c r="A385" s="1"/>
       <c r="B385" s="18"/>
       <c r="C385" s="18"/>
       <c r="D385" s="18"/>
@@ -43339,22 +43543,23 @@
       <c r="G385" s="18"/>
       <c r="H385" s="18"/>
       <c r="I385" s="18"/>
+      <c r="J385" s="18"/>
     </row>
     <row r="386" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="14" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B386" s="14" t="s">
         <v>1028</v>
       </c>
-      <c r="B386" s="31" t="s">
+      <c r="C386" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C386" s="36" t="n">
+      <c r="D386" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="D386" s="36" t="n">
+      <c r="E386" s="36" t="n">
         <v>6</v>
-      </c>
-      <c r="E386" s="36" t="n">
-        <v>7</v>
       </c>
       <c r="F386" s="36" t="n">
         <v>7</v>
@@ -43362,89 +43567,98 @@
       <c r="G386" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H386" s="32" t="n">
-        <f aca="false">SUM(C386:G386)</f>
+      <c r="H386" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I386" s="32" t="n">
+        <f aca="false">SUM(D386:H386)</f>
         <v>34</v>
       </c>
-      <c r="I386" s="14" t="s">
+      <c r="J386" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="14" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B387" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="B387" s="31" t="s">
+      <c r="C387" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C387" s="37" t="n">
+      <c r="D387" s="37" t="n">
         <v>8</v>
-      </c>
-      <c r="D387" s="37" t="n">
-        <v>7</v>
       </c>
       <c r="E387" s="37" t="n">
         <v>7</v>
       </c>
       <c r="F387" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G387" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="G387" s="37" t="n">
+      <c r="H387" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H387" s="32" t="n">
-        <f aca="false">SUM(C387:G387)</f>
+      <c r="I387" s="32" t="n">
+        <f aca="false">SUM(D387:H387)</f>
         <v>37</v>
       </c>
-      <c r="I387" s="14" t="s">
+      <c r="J387" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="14" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B388" s="14" t="s">
         <v>1040</v>
       </c>
-      <c r="B388" s="31" t="s">
+      <c r="C388" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C388" s="63" t="n">
-        <v>7</v>
       </c>
       <c r="D388" s="63" t="n">
         <v>7</v>
       </c>
-      <c r="E388" s="37" t="n">
+      <c r="E388" s="63" t="n">
         <v>7</v>
       </c>
       <c r="F388" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G388" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="G388" s="37" t="n">
+      <c r="H388" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H388" s="32" t="n">
-        <f aca="false">SUM(C388:G388)</f>
+      <c r="I388" s="32" t="n">
+        <f aca="false">SUM(D388:H388)</f>
         <v>33</v>
       </c>
-      <c r="I388" s="14" t="s">
+      <c r="J388" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="14" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B389" s="14" t="s">
         <v>1043</v>
       </c>
-      <c r="B389" s="31" t="s">
+      <c r="C389" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C389" s="36" t="n">
-        <v>6</v>
       </c>
       <c r="D389" s="36" t="n">
         <v>6</v>
       </c>
       <c r="E389" s="36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F389" s="36" t="n">
         <v>7</v>
@@ -43452,113 +43666,125 @@
       <c r="G389" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H389" s="32" t="n">
-        <f aca="false">SUM(C389:G389)</f>
+      <c r="H389" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I389" s="32" t="n">
+        <f aca="false">SUM(D389:H389)</f>
         <v>33</v>
       </c>
-      <c r="I389" s="14" t="s">
+      <c r="J389" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B390" s="14" t="s">
         <v>1045</v>
       </c>
-      <c r="B390" s="31" t="s">
+      <c r="C390" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C390" s="37" t="n">
+      <c r="D390" s="37" t="n">
         <v>8</v>
-      </c>
-      <c r="D390" s="37" t="n">
-        <v>7</v>
       </c>
       <c r="E390" s="37" t="n">
         <v>7</v>
       </c>
       <c r="F390" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="G390" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="G390" s="37" t="n">
+      <c r="H390" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H390" s="32" t="n">
-        <f aca="false">SUM(C390:G390)</f>
+      <c r="I390" s="32" t="n">
+        <f aca="false">SUM(D390:H390)</f>
         <v>37</v>
       </c>
-      <c r="I390" s="14" t="s">
+      <c r="J390" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B391" s="14" t="s">
         <v>1047</v>
       </c>
-      <c r="B391" s="31" t="s">
+      <c r="C391" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C391" s="36" t="n">
+      <c r="D391" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="D391" s="36" t="n">
+      <c r="E391" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="E391" s="36" t="n">
+      <c r="F391" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F391" s="36" t="n">
+      <c r="G391" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="G391" s="36" t="n">
+      <c r="H391" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H391" s="32" t="n">
-        <f aca="false">SUM(C391:G391)</f>
+      <c r="I391" s="32" t="n">
+        <f aca="false">SUM(D391:H391)</f>
         <v>35</v>
       </c>
-      <c r="I391" s="14" t="s">
+      <c r="J391" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B392" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="B392" s="31" t="s">
+      <c r="C392" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C392" s="37" t="n">
+      <c r="D392" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="D392" s="37" t="n">
+      <c r="E392" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="E392" s="37" t="n">
+      <c r="F392" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F392" s="37" t="n">
+      <c r="G392" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="G392" s="37" t="n">
+      <c r="H392" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H392" s="32" t="n">
-        <f aca="false">SUM(C392:G392)</f>
+      <c r="I392" s="32" t="n">
+        <f aca="false">SUM(D392:H392)</f>
         <v>34</v>
       </c>
-      <c r="I392" s="14" t="s">
+      <c r="J392" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="B393" s="14" t="s">
         <v>1050</v>
       </c>
-      <c r="B393" s="31" t="s">
+      <c r="C393" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C393" s="36" t="n">
-        <v>7</v>
       </c>
       <c r="D393" s="36" t="n">
         <v>7</v>
@@ -43572,59 +43798,65 @@
       <c r="G393" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H393" s="32" t="n">
-        <f aca="false">SUM(C393:G393)</f>
+      <c r="H393" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I393" s="32" t="n">
+        <f aca="false">SUM(D393:H393)</f>
         <v>35</v>
       </c>
-      <c r="I393" s="14" t="s">
+      <c r="J393" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="14" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B394" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="B394" s="31" t="s">
+      <c r="C394" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C394" s="37" t="n">
-        <v>8</v>
       </c>
       <c r="D394" s="37" t="n">
         <v>8</v>
       </c>
       <c r="E394" s="37" t="n">
+        <v>8</v>
+      </c>
+      <c r="F394" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F394" s="37" t="n">
+      <c r="G394" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="G394" s="37" t="n">
+      <c r="H394" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H394" s="32" t="n">
-        <f aca="false">SUM(C394:G394)</f>
+      <c r="I394" s="32" t="n">
+        <f aca="false">SUM(D394:H394)</f>
         <v>38</v>
       </c>
-      <c r="I394" s="14" t="s">
+      <c r="J394" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B395" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="B395" s="31" t="s">
+      <c r="C395" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C395" s="36" t="n">
+      <c r="D395" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="D395" s="36" t="n">
+      <c r="E395" s="36" t="n">
         <v>8</v>
-      </c>
-      <c r="E395" s="36" t="n">
-        <v>7</v>
       </c>
       <c r="F395" s="36" t="n">
         <v>7</v>
@@ -43632,89 +43864,98 @@
       <c r="G395" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H395" s="32" t="n">
-        <f aca="false">SUM(C395:G395)</f>
+      <c r="H395" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I395" s="32" t="n">
+        <f aca="false">SUM(D395:H395)</f>
         <v>35</v>
       </c>
-      <c r="I395" s="14" t="s">
+      <c r="J395" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B396" s="14" t="s">
         <v>1057</v>
       </c>
-      <c r="B396" s="31" t="s">
+      <c r="C396" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C396" s="37" t="n">
+      <c r="D396" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="D396" s="37" t="n">
+      <c r="E396" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="E396" s="37" t="n">
+      <c r="F396" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F396" s="37" t="n">
+      <c r="G396" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="G396" s="37" t="n">
+      <c r="H396" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H396" s="32" t="n">
-        <f aca="false">SUM(C396:G396)</f>
+      <c r="I396" s="32" t="n">
+        <f aca="false">SUM(D396:H396)</f>
         <v>35</v>
       </c>
-      <c r="I396" s="14" t="s">
+      <c r="J396" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B397" s="14" t="s">
         <v>1059</v>
       </c>
-      <c r="B397" s="31" t="s">
+      <c r="C397" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C397" s="36" t="n">
-        <v>8</v>
       </c>
       <c r="D397" s="36" t="n">
         <v>8</v>
       </c>
       <c r="E397" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F397" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F397" s="36" t="n">
+      <c r="G397" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="G397" s="36" t="n">
+      <c r="H397" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H397" s="32" t="n">
-        <f aca="false">SUM(C397:G397)</f>
+      <c r="I397" s="32" t="n">
+        <f aca="false">SUM(D397:H397)</f>
         <v>38</v>
       </c>
-      <c r="I397" s="14" t="s">
+      <c r="J397" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B398" s="14" t="s">
         <v>1061</v>
       </c>
-      <c r="B398" s="31" t="s">
+      <c r="C398" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C398" s="37" t="n">
+      <c r="D398" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="D398" s="37" t="n">
+      <c r="E398" s="37" t="n">
         <v>8</v>
-      </c>
-      <c r="E398" s="37" t="n">
-        <v>7</v>
       </c>
       <c r="F398" s="37" t="n">
         <v>7</v>
@@ -43722,119 +43963,131 @@
       <c r="G398" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H398" s="32" t="n">
-        <f aca="false">SUM(C398:G398)</f>
+      <c r="H398" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I398" s="32" t="n">
+        <f aca="false">SUM(D398:H398)</f>
         <v>38</v>
       </c>
-      <c r="I398" s="14" t="s">
+      <c r="J398" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B399" s="14" t="s">
         <v>1063</v>
       </c>
-      <c r="B399" s="31" t="s">
+      <c r="C399" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C399" s="36" t="n">
+      <c r="D399" s="36" t="n">
         <v>8</v>
-      </c>
-      <c r="D399" s="36" t="n">
-        <v>7</v>
       </c>
       <c r="E399" s="36" t="n">
         <v>7</v>
       </c>
       <c r="F399" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="G399" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="G399" s="36" t="n">
+      <c r="H399" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H399" s="32" t="n">
-        <f aca="false">SUM(C399:G399)</f>
+      <c r="I399" s="32" t="n">
+        <f aca="false">SUM(D399:H399)</f>
         <v>37</v>
       </c>
-      <c r="I399" s="14" t="s">
+      <c r="J399" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B400" s="14" t="s">
         <v>1066</v>
       </c>
-      <c r="B400" s="31" t="s">
+      <c r="C400" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C400" s="37" t="n">
+      <c r="D400" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="D400" s="37" t="n">
+      <c r="E400" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="E400" s="37" t="n">
+      <c r="F400" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F400" s="37" t="n">
+      <c r="G400" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="G400" s="37" t="n">
+      <c r="H400" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H400" s="32" t="n">
-        <f aca="false">SUM(C400:G400)</f>
+      <c r="I400" s="32" t="n">
+        <f aca="false">SUM(D400:H400)</f>
         <v>34</v>
       </c>
-      <c r="I400" s="14" t="s">
+      <c r="J400" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B401" s="14" t="s">
         <v>1068</v>
       </c>
-      <c r="B401" s="31" t="s">
+      <c r="C401" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C401" s="36" t="n">
+      <c r="D401" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="D401" s="36" t="n">
+      <c r="E401" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="E401" s="36" t="n">
+      <c r="F401" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F401" s="36" t="n">
+      <c r="G401" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="G401" s="36" t="n">
+      <c r="H401" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H401" s="32" t="n">
-        <f aca="false">SUM(C401:G401)</f>
+      <c r="I401" s="32" t="n">
+        <f aca="false">SUM(D401:H401)</f>
         <v>36</v>
       </c>
-      <c r="I401" s="14" t="s">
+      <c r="J401" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B402" s="14" t="s">
         <v>1070</v>
       </c>
-      <c r="B402" s="31" t="s">
+      <c r="C402" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C402" s="37" t="n">
+      <c r="D402" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="D402" s="37" t="n">
+      <c r="E402" s="37" t="n">
         <v>5</v>
-      </c>
-      <c r="E402" s="37" t="n">
-        <v>7</v>
       </c>
       <c r="F402" s="37" t="n">
         <v>7</v>
@@ -43842,59 +44095,65 @@
       <c r="G402" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H402" s="32" t="n">
-        <f aca="false">SUM(C402:G402)</f>
+      <c r="H402" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I402" s="32" t="n">
+        <f aca="false">SUM(D402:H402)</f>
         <v>35</v>
       </c>
-      <c r="I402" s="14" t="s">
+      <c r="J402" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B403" s="14" t="s">
         <v>1072</v>
       </c>
-      <c r="B403" s="31" t="s">
+      <c r="C403" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C403" s="38" t="n">
+      <c r="D403" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="D403" s="38" t="n">
+      <c r="E403" s="38" t="n">
         <v>5</v>
       </c>
-      <c r="E403" s="36" t="n">
+      <c r="F403" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F403" s="36" t="n">
+      <c r="G403" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="G403" s="36" t="n">
+      <c r="H403" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H403" s="32" t="n">
-        <f aca="false">SUM(C403:G403)</f>
+      <c r="I403" s="32" t="n">
+        <f aca="false">SUM(D403:H403)</f>
         <v>33</v>
       </c>
-      <c r="I403" s="14" t="s">
+      <c r="J403" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B404" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="B404" s="31" t="s">
+      <c r="C404" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C404" s="37" t="n">
+      <c r="D404" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="D404" s="37" t="n">
+      <c r="E404" s="37" t="n">
         <v>5</v>
-      </c>
-      <c r="E404" s="37" t="n">
-        <v>7</v>
       </c>
       <c r="F404" s="37" t="n">
         <v>7</v>
@@ -43902,89 +44161,98 @@
       <c r="G404" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H404" s="32" t="n">
-        <f aca="false">SUM(C404:G404)</f>
+      <c r="H404" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I404" s="32" t="n">
+        <f aca="false">SUM(D404:H404)</f>
         <v>32</v>
       </c>
-      <c r="I404" s="14" t="s">
+      <c r="J404" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B405" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="B405" s="31" t="s">
+      <c r="C405" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C405" s="36" t="n">
+      <c r="D405" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="D405" s="36" t="n">
+      <c r="E405" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="E405" s="36" t="n">
+      <c r="F405" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F405" s="36" t="n">
+      <c r="G405" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="G405" s="36" t="n">
+      <c r="H405" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H405" s="32" t="n">
-        <f aca="false">SUM(C405:G405)</f>
+      <c r="I405" s="32" t="n">
+        <f aca="false">SUM(D405:H405)</f>
         <v>33</v>
       </c>
-      <c r="I405" s="14" t="s">
+      <c r="J405" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B406" s="14" t="s">
         <v>1078</v>
       </c>
-      <c r="B406" s="31" t="s">
+      <c r="C406" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C406" s="37" t="n">
+      <c r="D406" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="D406" s="37" t="n">
+      <c r="E406" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="E406" s="37" t="n">
+      <c r="F406" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F406" s="37" t="n">
+      <c r="G406" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="G406" s="37" t="n">
+      <c r="H406" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H406" s="32" t="n">
-        <f aca="false">SUM(C406:G406)</f>
+      <c r="I406" s="32" t="n">
+        <f aca="false">SUM(D406:H406)</f>
         <v>31</v>
       </c>
-      <c r="I406" s="14" t="s">
+      <c r="J406" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B407" s="14" t="s">
         <v>1080</v>
       </c>
-      <c r="B407" s="31" t="s">
+      <c r="C407" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C407" s="36" t="n">
+      <c r="D407" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="D407" s="36" t="n">
+      <c r="E407" s="36" t="n">
         <v>5</v>
-      </c>
-      <c r="E407" s="36" t="n">
-        <v>7</v>
       </c>
       <c r="F407" s="36" t="n">
         <v>7</v>
@@ -43992,146 +44260,161 @@
       <c r="G407" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H407" s="32" t="n">
-        <f aca="false">SUM(C407:G407)</f>
+      <c r="H407" s="36" t="n">
+        <v>7</v>
+      </c>
+      <c r="I407" s="32" t="n">
+        <f aca="false">SUM(D407:H407)</f>
         <v>32</v>
       </c>
-      <c r="I407" s="14" t="s">
+      <c r="J407" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B408" s="14" t="s">
         <v>1084</v>
       </c>
-      <c r="B408" s="31" t="s">
+      <c r="C408" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C408" s="37" t="n">
+      <c r="D408" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="D408" s="37" t="n">
+      <c r="E408" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="E408" s="37" t="n">
+      <c r="F408" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F408" s="37" t="n">
+      <c r="G408" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="G408" s="37" t="n">
+      <c r="H408" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H408" s="32" t="n">
-        <f aca="false">SUM(C408:G408)</f>
+      <c r="I408" s="32" t="n">
+        <f aca="false">SUM(D408:H408)</f>
         <v>33</v>
       </c>
-      <c r="I408" s="14" t="s">
+      <c r="J408" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B409" s="14" t="s">
         <v>1086</v>
       </c>
-      <c r="B409" s="31" t="s">
+      <c r="C409" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C409" s="38" t="n">
+      <c r="D409" s="38" t="n">
         <v>8</v>
       </c>
-      <c r="D409" s="38" t="n">
+      <c r="E409" s="38" t="n">
         <v>9</v>
       </c>
-      <c r="E409" s="36" t="n">
+      <c r="F409" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F409" s="36" t="n">
+      <c r="G409" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="G409" s="36" t="n">
+      <c r="H409" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H409" s="32" t="n">
-        <f aca="false">SUM(C409:G409)</f>
+      <c r="I409" s="32" t="n">
+        <f aca="false">SUM(D409:H409)</f>
         <v>37</v>
       </c>
-      <c r="I409" s="14" t="s">
+      <c r="J409" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B410" s="14" t="s">
         <v>1088</v>
       </c>
-      <c r="B410" s="31" t="s">
+      <c r="C410" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C410" s="37" t="n">
+      <c r="D410" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="D410" s="37" t="n">
+      <c r="E410" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="E410" s="37" t="n">
+      <c r="F410" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F410" s="37" t="n">
+      <c r="G410" s="37" t="n">
         <v>6</v>
       </c>
-      <c r="G410" s="37" t="n">
+      <c r="H410" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H410" s="32" t="n">
-        <f aca="false">SUM(C410:G410)</f>
+      <c r="I410" s="32" t="n">
+        <f aca="false">SUM(D410:H410)</f>
         <v>35</v>
       </c>
-      <c r="I410" s="14" t="s">
+      <c r="J410" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B411" s="14" t="s">
         <v>1090</v>
       </c>
-      <c r="B411" s="31" t="s">
+      <c r="C411" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C411" s="36" t="n">
+      <c r="D411" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="D411" s="36" t="n">
+      <c r="E411" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="E411" s="36" t="n">
+      <c r="F411" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F411" s="36" t="n">
+      <c r="G411" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="G411" s="36" t="n">
+      <c r="H411" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H411" s="32" t="n">
-        <f aca="false">SUM(C411:G411)</f>
+      <c r="I411" s="32" t="n">
+        <f aca="false">SUM(D411:H411)</f>
         <v>37</v>
       </c>
-      <c r="I411" s="14" t="s">
+      <c r="J411" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="B412" s="14" t="s">
         <v>1091</v>
       </c>
-      <c r="B412" s="31" t="s">
+      <c r="C412" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C412" s="37" t="n">
+      <c r="D412" s="37" t="n">
         <v>8</v>
-      </c>
-      <c r="D412" s="37" t="n">
-        <v>7</v>
       </c>
       <c r="E412" s="37" t="n">
         <v>7</v>
@@ -44142,119 +44425,131 @@
       <c r="G412" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H412" s="32" t="n">
-        <f aca="false">SUM(C412:G412)</f>
+      <c r="H412" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I412" s="32" t="n">
+        <f aca="false">SUM(D412:H412)</f>
         <v>36</v>
       </c>
-      <c r="I412" s="14" t="s">
+      <c r="J412" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B413" s="14" t="s">
         <v>1093</v>
       </c>
-      <c r="B413" s="31" t="s">
+      <c r="C413" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C413" s="36" t="n">
-        <v>8</v>
       </c>
       <c r="D413" s="36" t="n">
         <v>8</v>
       </c>
       <c r="E413" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="F413" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F413" s="36" t="n">
+      <c r="G413" s="36" t="n">
         <v>6</v>
       </c>
-      <c r="G413" s="36" t="n">
+      <c r="H413" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H413" s="32" t="n">
-        <f aca="false">SUM(C413:G413)</f>
+      <c r="I413" s="32" t="n">
+        <f aca="false">SUM(D413:H413)</f>
         <v>36</v>
       </c>
-      <c r="I413" s="14" t="s">
+      <c r="J413" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B414" s="14" t="s">
         <v>1097</v>
       </c>
-      <c r="B414" s="31" t="s">
+      <c r="C414" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C414" s="37" t="n">
+      <c r="D414" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="D414" s="37" t="n">
+      <c r="E414" s="37" t="n">
         <v>9</v>
       </c>
-      <c r="E414" s="37" t="n">
+      <c r="F414" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F414" s="37" t="n">
+      <c r="G414" s="37" t="n">
         <v>5</v>
       </c>
-      <c r="G414" s="37" t="n">
+      <c r="H414" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H414" s="32" t="n">
-        <f aca="false">SUM(C414:G414)</f>
+      <c r="I414" s="32" t="n">
+        <f aca="false">SUM(D414:H414)</f>
         <v>36</v>
       </c>
-      <c r="I414" s="14" t="s">
+      <c r="J414" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B415" s="14" t="s">
         <v>1099</v>
       </c>
-      <c r="B415" s="31" t="s">
+      <c r="C415" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C415" s="36" t="n">
+      <c r="D415" s="36" t="n">
         <v>8</v>
       </c>
-      <c r="D415" s="36" t="n">
+      <c r="E415" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="E415" s="36" t="n">
+      <c r="F415" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F415" s="36" t="n">
+      <c r="G415" s="36" t="n">
         <v>5</v>
       </c>
-      <c r="G415" s="36" t="n">
+      <c r="H415" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H415" s="32" t="n">
-        <f aca="false">SUM(C415:G415)</f>
+      <c r="I415" s="32" t="n">
+        <f aca="false">SUM(D415:H415)</f>
         <v>36</v>
       </c>
-      <c r="I415" s="14" t="s">
+      <c r="J415" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B416" s="14" t="s">
         <v>1101</v>
       </c>
-      <c r="B416" s="31" t="s">
+      <c r="C416" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C416" s="37" t="n">
+      <c r="D416" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="D416" s="37" t="n">
+      <c r="E416" s="37" t="n">
         <v>9</v>
-      </c>
-      <c r="E416" s="37" t="n">
-        <v>7</v>
       </c>
       <c r="F416" s="37" t="n">
         <v>7</v>
@@ -44262,71 +44557,80 @@
       <c r="G416" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H416" s="32" t="n">
-        <f aca="false">SUM(C416:G416)</f>
+      <c r="H416" s="37" t="n">
+        <v>7</v>
+      </c>
+      <c r="I416" s="32" t="n">
+        <f aca="false">SUM(D416:H416)</f>
         <v>37</v>
       </c>
-      <c r="I416" s="14" t="s">
+      <c r="J416" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="14" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B417" s="14" t="s">
         <v>1103</v>
       </c>
-      <c r="B417" s="31" t="s">
+      <c r="C417" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C417" s="36" t="n">
+      <c r="D417" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="D417" s="36" t="n">
+      <c r="E417" s="36" t="n">
         <v>9</v>
       </c>
-      <c r="E417" s="36" t="n">
+      <c r="F417" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="F417" s="38" t="n">
+      <c r="G417" s="38" t="n">
         <v>6</v>
       </c>
-      <c r="G417" s="36" t="n">
+      <c r="H417" s="36" t="n">
         <v>7</v>
       </c>
-      <c r="H417" s="32" t="n">
-        <f aca="false">SUM(C417:G417)</f>
+      <c r="I417" s="32" t="n">
+        <f aca="false">SUM(D417:H417)</f>
         <v>36</v>
       </c>
-      <c r="I417" s="14" t="s">
+      <c r="J417" s="14" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B418" s="14" t="s">
         <v>1105</v>
       </c>
-      <c r="B418" s="31" t="s">
+      <c r="C418" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C418" s="37" t="n">
+      <c r="D418" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="D418" s="37" t="n">
+      <c r="E418" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="E418" s="37" t="n">
+      <c r="F418" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="F418" s="37" t="n">
+      <c r="G418" s="37" t="n">
         <v>8</v>
       </c>
-      <c r="G418" s="37" t="n">
+      <c r="H418" s="37" t="n">
         <v>7</v>
       </c>
-      <c r="H418" s="32" t="n">
-        <f aca="false">SUM(C418:G418)</f>
+      <c r="I418" s="32" t="n">
+        <f aca="false">SUM(D418:H418)</f>
         <v>37</v>
       </c>
-      <c r="I418" s="14" t="s">
+      <c r="J418" s="14" t="s">
         <v>858</v>
       </c>
     </row>
@@ -44340,763 +44644,845 @@
       <c r="G419" s="18"/>
       <c r="H419" s="18"/>
       <c r="I419" s="18"/>
+      <c r="J419" s="18"/>
     </row>
     <row r="420" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B420" s="14" t="s">
         <v>1107</v>
       </c>
-      <c r="B420" s="31" t="s">
+      <c r="C420" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C420" s="64" t="n">
+      <c r="D420" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="D420" s="64" t="n">
+      <c r="E420" s="64" t="n">
         <v>6</v>
       </c>
-      <c r="E420" s="64" t="n">
-        <v>0</v>
-      </c>
       <c r="F420" s="64" t="n">
         <v>0</v>
       </c>
       <c r="G420" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H420" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="H420" s="32" t="n">
-        <f aca="false">SUM(C420:G420)</f>
+      <c r="I420" s="32" t="n">
+        <f aca="false">SUM(D420:H420)</f>
         <v>21</v>
       </c>
-      <c r="I420" s="14" t="s">
+      <c r="J420" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B421" s="14" t="s">
         <v>1112</v>
       </c>
-      <c r="B421" s="31" t="s">
+      <c r="C421" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C421" s="65" t="n">
+      <c r="D421" s="65" t="n">
         <v>8</v>
       </c>
-      <c r="D421" s="65" t="n">
+      <c r="E421" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="E421" s="65" t="n">
+      <c r="F421" s="65" t="n">
         <v>6</v>
       </c>
-      <c r="F421" s="65" t="n">
+      <c r="G421" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="G421" s="65" t="n">
+      <c r="H421" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="H421" s="32" t="n">
-        <f aca="false">SUM(C421:G421)</f>
+      <c r="I421" s="32" t="n">
+        <f aca="false">SUM(D421:H421)</f>
         <v>33</v>
       </c>
-      <c r="I421" s="14" t="s">
+      <c r="J421" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B422" s="14" t="s">
         <v>1114</v>
       </c>
-      <c r="B422" s="31" t="s">
+      <c r="C422" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C422" s="64" t="n">
-        <v>0</v>
-      </c>
       <c r="D422" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E422" s="64" t="n">
         <v>2</v>
       </c>
-      <c r="E422" s="64" t="n">
-        <v>0</v>
-      </c>
       <c r="F422" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G422" s="64" t="n">
         <v>5</v>
       </c>
-      <c r="G422" s="64" t="n">
+      <c r="H422" s="64" t="n">
         <v>9</v>
       </c>
-      <c r="H422" s="32" t="n">
-        <f aca="false">SUM(C422:G422)</f>
+      <c r="I422" s="32" t="n">
+        <f aca="false">SUM(D422:H422)</f>
         <v>16</v>
       </c>
-      <c r="I422" s="14" t="s">
+      <c r="J422" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B423" s="14" t="s">
         <v>1117</v>
       </c>
-      <c r="B423" s="31" t="s">
+      <c r="C423" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C423" s="65" t="n">
-        <v>0</v>
-      </c>
       <c r="D423" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E423" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="E423" s="65" t="n">
-        <v>0</v>
-      </c>
       <c r="F423" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G423" s="65" t="n">
         <v>8</v>
       </c>
-      <c r="G423" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H423" s="32" t="n">
-        <f aca="false">SUM(C423:G423)</f>
+      <c r="H423" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I423" s="32" t="n">
+        <f aca="false">SUM(D423:H423)</f>
         <v>15</v>
       </c>
-      <c r="I423" s="14" t="s">
+      <c r="J423" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="14" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B424" s="14" t="s">
         <v>1120</v>
       </c>
-      <c r="B424" s="31" t="s">
+      <c r="C424" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C424" s="64" t="n">
+      <c r="D424" s="64" t="n">
         <v>5.8</v>
       </c>
-      <c r="D424" s="64" t="n">
+      <c r="E424" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="E424" s="64" t="n">
-        <v>0</v>
-      </c>
       <c r="F424" s="64" t="n">
         <v>0</v>
       </c>
       <c r="G424" s="64" t="n">
         <v>0</v>
       </c>
-      <c r="H424" s="32" t="n">
-        <f aca="false">SUM(C424:G424)</f>
+      <c r="H424" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I424" s="32" t="n">
+        <f aca="false">SUM(D424:H424)</f>
         <v>12.8</v>
       </c>
-      <c r="I424" s="14" t="s">
+      <c r="J424" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B425" s="14" t="s">
         <v>1123</v>
       </c>
-      <c r="B425" s="31" t="s">
+      <c r="C425" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C425" s="65" t="n">
+      <c r="D425" s="65" t="n">
         <v>8.2</v>
       </c>
-      <c r="D425" s="65" t="n">
+      <c r="E425" s="65" t="n">
         <v>9.4</v>
       </c>
-      <c r="E425" s="65" t="n">
+      <c r="F425" s="65" t="n">
         <v>7.2</v>
       </c>
-      <c r="F425" s="65" t="n">
+      <c r="G425" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="G425" s="65" t="n">
+      <c r="H425" s="65" t="n">
         <v>6</v>
       </c>
-      <c r="H425" s="32" t="n">
-        <f aca="false">SUM(C425:G425)</f>
+      <c r="I425" s="32" t="n">
+        <f aca="false">SUM(D425:H425)</f>
         <v>37.8</v>
       </c>
-      <c r="I425" s="14" t="s">
+      <c r="J425" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B426" s="14" t="s">
         <v>1126</v>
       </c>
-      <c r="B426" s="31" t="s">
+      <c r="C426" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C426" s="64" t="n">
-        <v>8.2</v>
       </c>
       <c r="D426" s="64" t="n">
         <v>8.2</v>
       </c>
       <c r="E426" s="64" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="F426" s="64" t="n">
         <v>7.6</v>
       </c>
-      <c r="F426" s="64" t="n">
+      <c r="G426" s="64" t="n">
         <v>5</v>
       </c>
-      <c r="G426" s="64" t="n">
+      <c r="H426" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="H426" s="32" t="n">
-        <f aca="false">SUM(C426:G426)</f>
+      <c r="I426" s="32" t="n">
+        <f aca="false">SUM(D426:H426)</f>
         <v>36</v>
       </c>
-      <c r="I426" s="14" t="s">
+      <c r="J426" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="14" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B427" s="14" t="s">
         <v>1128</v>
       </c>
-      <c r="B427" s="31" t="s">
+      <c r="C427" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C427" s="65" t="n">
+      <c r="D427" s="65" t="n">
         <v>8.4</v>
       </c>
-      <c r="D427" s="65" t="n">
+      <c r="E427" s="65" t="n">
         <v>9.2</v>
       </c>
-      <c r="E427" s="65" t="n">
+      <c r="F427" s="65" t="n">
         <v>7.8</v>
       </c>
-      <c r="F427" s="65" t="n">
+      <c r="G427" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="G427" s="65" t="n">
+      <c r="H427" s="65" t="n">
         <v>9</v>
       </c>
-      <c r="H427" s="32" t="n">
-        <f aca="false">SUM(C427:G427)</f>
+      <c r="I427" s="32" t="n">
+        <f aca="false">SUM(D427:H427)</f>
         <v>39.4</v>
       </c>
-      <c r="I427" s="14" t="s">
+      <c r="J427" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B428" s="14" t="s">
         <v>1131</v>
       </c>
-      <c r="B428" s="31" t="s">
+      <c r="C428" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C428" s="64" t="n">
-        <v>6.8</v>
       </c>
       <c r="D428" s="64" t="n">
         <v>6.8</v>
       </c>
       <c r="E428" s="64" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="F428" s="64" t="n">
         <v>7</v>
       </c>
       <c r="G428" s="64" t="n">
+        <v>7</v>
+      </c>
+      <c r="H428" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="H428" s="32" t="n">
-        <f aca="false">SUM(C428:G428)</f>
+      <c r="I428" s="32" t="n">
+        <f aca="false">SUM(D428:H428)</f>
         <v>35.6</v>
       </c>
-      <c r="I428" s="14" t="s">
+      <c r="J428" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B429" s="14" t="s">
         <v>1133</v>
       </c>
-      <c r="B429" s="31" t="s">
+      <c r="C429" s="31" t="s">
         <v>1187</v>
-      </c>
-      <c r="C429" s="65" t="n">
-        <v>5.6</v>
       </c>
       <c r="D429" s="65" t="n">
         <v>5.6</v>
       </c>
       <c r="E429" s="65" t="n">
-        <v>6</v>
+        <v>5.6</v>
       </c>
       <c r="F429" s="65" t="n">
         <v>6</v>
       </c>
       <c r="G429" s="65" t="n">
+        <v>6</v>
+      </c>
+      <c r="H429" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="H429" s="32" t="n">
-        <f aca="false">SUM(C429:G429)</f>
+      <c r="I429" s="32" t="n">
+        <f aca="false">SUM(D429:H429)</f>
         <v>30.2</v>
       </c>
-      <c r="I429" s="14" t="s">
+      <c r="J429" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B430" s="14" t="s">
         <v>1135</v>
       </c>
-      <c r="B430" s="31" t="s">
+      <c r="C430" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C430" s="64" t="n">
+      <c r="D430" s="64" t="n">
         <v>4.8</v>
-      </c>
-      <c r="D430" s="64" t="n">
-        <v>6</v>
       </c>
       <c r="E430" s="64" t="n">
         <v>6</v>
       </c>
       <c r="F430" s="64" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G430" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H430" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="H430" s="32" t="n">
-        <f aca="false">SUM(C430:G430)</f>
+      <c r="I430" s="32" t="n">
+        <f aca="false">SUM(D430:H430)</f>
         <v>24.8</v>
       </c>
-      <c r="I430" s="14" t="s">
+      <c r="J430" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="B431" s="14" t="s">
         <v>1136</v>
       </c>
-      <c r="B431" s="31" t="s">
+      <c r="C431" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C431" s="65" t="n">
+      <c r="D431" s="65" t="n">
         <v>7.6</v>
       </c>
-      <c r="D431" s="65" t="n">
+      <c r="E431" s="65" t="n">
         <v>8.2</v>
       </c>
-      <c r="E431" s="65" t="n">
+      <c r="F431" s="65" t="n">
         <v>6.8</v>
       </c>
-      <c r="F431" s="65" t="n">
+      <c r="G431" s="65" t="n">
         <v>9</v>
       </c>
-      <c r="G431" s="65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H431" s="32" t="n">
-        <f aca="false">SUM(C431:G431)</f>
+      <c r="H431" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" s="32" t="n">
+        <f aca="false">SUM(D431:H431)</f>
         <v>31.6</v>
       </c>
-      <c r="I431" s="14" t="s">
+      <c r="J431" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="14" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B432" s="14" t="s">
         <v>1140</v>
       </c>
-      <c r="B432" s="31" t="s">
+      <c r="C432" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C432" s="64" t="n">
+      <c r="D432" s="64" t="n">
         <v>8.2</v>
-      </c>
-      <c r="D432" s="64" t="n">
-        <v>7.6</v>
       </c>
       <c r="E432" s="64" t="n">
         <v>7.6</v>
       </c>
       <c r="F432" s="64" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="G432" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="G432" s="64" t="n">
+      <c r="H432" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="H432" s="32" t="n">
-        <f aca="false">SUM(C432:G432)</f>
+      <c r="I432" s="32" t="n">
+        <f aca="false">SUM(D432:H432)</f>
         <v>38.4</v>
       </c>
-      <c r="I432" s="14" t="s">
+      <c r="J432" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B433" s="14" t="s">
         <v>1143</v>
       </c>
-      <c r="B433" s="31" t="s">
+      <c r="C433" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C433" s="65" t="n">
+      <c r="D433" s="65" t="n">
         <v>7.2</v>
       </c>
-      <c r="D433" s="65" t="n">
+      <c r="E433" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="E433" s="65" t="n">
+      <c r="F433" s="65" t="n">
         <v>5.6</v>
       </c>
-      <c r="F433" s="65" t="n">
+      <c r="G433" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="G433" s="65" t="n">
+      <c r="H433" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="H433" s="32" t="n">
-        <f aca="false">SUM(C433:G433)</f>
+      <c r="I433" s="32" t="n">
+        <f aca="false">SUM(D433:H433)</f>
         <v>31.8</v>
       </c>
-      <c r="I433" s="14" t="s">
+      <c r="J433" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B434" s="14" t="s">
         <v>1145</v>
       </c>
-      <c r="B434" s="31" t="s">
+      <c r="C434" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C434" s="64" t="n">
-        <v>0</v>
-      </c>
       <c r="D434" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E434" s="64" t="n">
         <v>6.4</v>
       </c>
-      <c r="E434" s="64" t="n">
-        <v>0</v>
-      </c>
       <c r="F434" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G434" s="64" t="n">
         <v>5</v>
       </c>
-      <c r="G434" s="64" t="n">
+      <c r="H434" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="H434" s="32" t="n">
-        <f aca="false">SUM(C434:G434)</f>
+      <c r="I434" s="32" t="n">
+        <f aca="false">SUM(D434:H434)</f>
         <v>19.4</v>
       </c>
-      <c r="I434" s="14" t="s">
+      <c r="J434" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B435" s="14" t="s">
         <v>1146</v>
       </c>
-      <c r="B435" s="31" t="s">
+      <c r="C435" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C435" s="65" t="n">
+      <c r="D435" s="65" t="n">
         <v>7</v>
-      </c>
-      <c r="D435" s="65" t="n">
-        <v>7.2</v>
       </c>
       <c r="E435" s="65" t="n">
         <v>7.2</v>
       </c>
       <c r="F435" s="65" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="G435" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H435" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="H435" s="32" t="n">
-        <f aca="false">SUM(C435:G435)</f>
+      <c r="I435" s="32" t="n">
+        <f aca="false">SUM(D435:H435)</f>
         <v>28.4</v>
       </c>
-      <c r="I435" s="14" t="s">
+      <c r="J435" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="14" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B436" s="14" t="s">
         <v>1148</v>
       </c>
-      <c r="B436" s="31" t="s">
+      <c r="C436" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C436" s="64" t="n">
+      <c r="D436" s="64" t="n">
         <v>7.6</v>
       </c>
-      <c r="D436" s="64" t="n">
+      <c r="E436" s="64" t="n">
         <v>6.2</v>
       </c>
-      <c r="E436" s="64" t="n">
+      <c r="F436" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="F436" s="64" t="n">
+      <c r="G436" s="64" t="n">
         <v>6</v>
       </c>
-      <c r="G436" s="64" t="n">
+      <c r="H436" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="H436" s="32" t="n">
-        <f aca="false">SUM(C436:G436)</f>
+      <c r="I436" s="32" t="n">
+        <f aca="false">SUM(D436:H436)</f>
         <v>33.8</v>
       </c>
-      <c r="I436" s="14" t="s">
+      <c r="J436" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B437" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="B437" s="31" t="s">
+      <c r="C437" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C437" s="65" t="n">
+      <c r="D437" s="65" t="n">
         <v>8.4</v>
       </c>
-      <c r="D437" s="65" t="n">
+      <c r="E437" s="65" t="n">
         <v>8.8</v>
       </c>
-      <c r="E437" s="65" t="n">
-        <v>0</v>
-      </c>
       <c r="F437" s="65" t="n">
         <v>0</v>
       </c>
       <c r="G437" s="65" t="n">
         <v>0</v>
       </c>
-      <c r="H437" s="32" t="n">
-        <f aca="false">SUM(C437:G437)</f>
+      <c r="H437" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" s="32" t="n">
+        <f aca="false">SUM(D437:H437)</f>
         <v>17.2</v>
       </c>
-      <c r="I437" s="14" t="s">
+      <c r="J437" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="14" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B438" s="14" t="s">
         <v>1153</v>
       </c>
-      <c r="B438" s="31" t="s">
+      <c r="C438" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C438" s="64" t="n">
+      <c r="D438" s="64" t="n">
         <v>8.2</v>
       </c>
-      <c r="D438" s="64" t="n">
+      <c r="E438" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="E438" s="64" t="n">
+      <c r="F438" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="F438" s="64" t="n">
+      <c r="G438" s="64" t="n">
         <v>5</v>
       </c>
-      <c r="G438" s="64" t="n">
+      <c r="H438" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="H438" s="32" t="n">
-        <f aca="false">SUM(C438:G438)</f>
+      <c r="I438" s="32" t="n">
+        <f aca="false">SUM(D438:H438)</f>
         <v>36.2</v>
       </c>
-      <c r="I438" s="14" t="s">
+      <c r="J438" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B439" s="14" t="s">
         <v>1155</v>
       </c>
-      <c r="B439" s="31" t="s">
+      <c r="C439" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C439" s="65" t="n">
+      <c r="D439" s="65" t="n">
         <v>8</v>
       </c>
-      <c r="D439" s="65" t="n">
+      <c r="E439" s="65" t="n">
         <v>8.6</v>
       </c>
-      <c r="E439" s="65" t="n">
+      <c r="F439" s="65" t="n">
         <v>8</v>
       </c>
-      <c r="F439" s="65" t="n">
+      <c r="G439" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="G439" s="65" t="n">
+      <c r="H439" s="65" t="n">
         <v>8</v>
       </c>
-      <c r="H439" s="32" t="n">
-        <f aca="false">SUM(C439:G439)</f>
+      <c r="I439" s="32" t="n">
+        <f aca="false">SUM(D439:H439)</f>
         <v>39.6</v>
       </c>
-      <c r="I439" s="14" t="s">
+      <c r="J439" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="B440" s="14" t="s">
         <v>1157</v>
       </c>
-      <c r="B440" s="31" t="s">
+      <c r="C440" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C440" s="64" t="n">
+      <c r="D440" s="64" t="n">
         <v>5.4</v>
       </c>
-      <c r="D440" s="64" t="n">
+      <c r="E440" s="64" t="n">
         <v>7.6</v>
       </c>
-      <c r="E440" s="64" t="n">
+      <c r="F440" s="64" t="n">
         <v>7.2</v>
       </c>
-      <c r="F440" s="64" t="n">
-        <v>0</v>
-      </c>
       <c r="G440" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H440" s="64" t="n">
         <v>6</v>
       </c>
-      <c r="H440" s="32" t="n">
-        <f aca="false">SUM(C440:G440)</f>
+      <c r="I440" s="32" t="n">
+        <f aca="false">SUM(D440:H440)</f>
         <v>26.2</v>
       </c>
-      <c r="I440" s="14" t="s">
+      <c r="J440" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B441" s="14" t="s">
         <v>1159</v>
       </c>
-      <c r="B441" s="31" t="s">
+      <c r="C441" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C441" s="65" t="n">
-        <v>0</v>
-      </c>
       <c r="D441" s="65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E441" s="65" t="n">
         <v>6.8</v>
       </c>
-      <c r="E441" s="65" t="n">
+      <c r="F441" s="65" t="n">
         <v>7.6</v>
       </c>
-      <c r="F441" s="65" t="n">
+      <c r="G441" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="G441" s="65" t="n">
+      <c r="H441" s="65" t="n">
         <v>7</v>
       </c>
-      <c r="H441" s="32" t="n">
-        <f aca="false">SUM(C441:G441)</f>
+      <c r="I441" s="32" t="n">
+        <f aca="false">SUM(D441:H441)</f>
         <v>26.4</v>
       </c>
-      <c r="I441" s="14" t="s">
+      <c r="J441" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B442" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="B442" s="31" t="s">
+      <c r="C442" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C442" s="64" t="n">
-        <v>0</v>
-      </c>
       <c r="D442" s="64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E442" s="64" t="n">
         <v>6</v>
       </c>
-      <c r="E442" s="64" t="n">
+      <c r="F442" s="64" t="n">
         <v>7.8</v>
-      </c>
-      <c r="F442" s="64" t="n">
-        <v>8</v>
       </c>
       <c r="G442" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="H442" s="32" t="n">
-        <f aca="false">SUM(C442:G442)</f>
+      <c r="H442" s="64" t="n">
+        <v>8</v>
+      </c>
+      <c r="I442" s="32" t="n">
+        <f aca="false">SUM(D442:H442)</f>
         <v>29.8</v>
       </c>
-      <c r="I442" s="14" t="s">
+      <c r="J442" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="14" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B443" s="14" t="s">
         <v>1164</v>
       </c>
-      <c r="B443" s="31" t="s">
+      <c r="C443" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C443" s="65" t="n">
+      <c r="D443" s="65" t="n">
         <v>6</v>
       </c>
-      <c r="D443" s="65" t="n">
+      <c r="E443" s="65" t="n">
         <v>5.2</v>
       </c>
-      <c r="E443" s="65" t="n">
+      <c r="F443" s="65" t="n">
         <v>5.6</v>
       </c>
-      <c r="F443" s="65" t="n">
+      <c r="G443" s="65" t="n">
         <v>5</v>
       </c>
-      <c r="G443" s="65" t="n">
+      <c r="H443" s="65" t="n">
         <v>8</v>
       </c>
-      <c r="H443" s="32" t="n">
-        <f aca="false">SUM(C443:G443)</f>
+      <c r="I443" s="32" t="n">
+        <f aca="false">SUM(D443:H443)</f>
         <v>29.8</v>
       </c>
-      <c r="I443" s="14" t="s">
+      <c r="J443" s="14" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="14" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B444" s="14" t="s">
         <v>1166</v>
       </c>
-      <c r="B444" s="31" t="s">
+      <c r="C444" s="31" t="s">
         <v>1187</v>
       </c>
-      <c r="C444" s="64" t="n">
+      <c r="D444" s="64" t="n">
         <v>5.6</v>
       </c>
-      <c r="D444" s="64" t="n">
+      <c r="E444" s="64" t="n">
         <v>6</v>
       </c>
-      <c r="E444" s="64" t="n">
+      <c r="F444" s="64" t="n">
         <v>5.6</v>
       </c>
-      <c r="F444" s="64" t="n">
+      <c r="G444" s="64" t="n">
         <v>5</v>
       </c>
-      <c r="G444" s="64" t="n">
+      <c r="H444" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="H444" s="32" t="n">
-        <f aca="false">SUM(C444:G444)</f>
+      <c r="I444" s="32" t="n">
+        <f aca="false">SUM(D444:H444)</f>
         <v>29.2</v>
       </c>
-      <c r="I444" s="14" t="s">
+      <c r="J444" s="14" t="s">
         <v>1110</v>
       </c>
+    </row>
+    <row r="445" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1"/>
+    </row>
+    <row r="446" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B31" r:id="rId1" display="AVINASHMANI2003@GMAIL.COM"/>
-    <hyperlink ref="A381" r:id="rId2" display="vijaytech1617@gmail.com"/>
+    <hyperlink ref="B381" r:id="rId2" display="vijaytech1617@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -38529,8 +38529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J553"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B461" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I468" sqref="I468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -42556,7 +42556,7 @@
         <v>7</v>
       </c>
       <c r="I124" s="57">
-        <f t="shared" ref="I124:I155" si="5">SUM(D124:H124)</f>
+        <f t="shared" ref="I124:I145" si="5">SUM(D124:H124)</f>
         <v>23.4</v>
       </c>
       <c r="J124" s="31" t="s">
@@ -47414,7 +47414,7 @@
         <v>8</v>
       </c>
       <c r="I276" s="14">
-        <f t="shared" ref="I276:I307" si="9">SUM(D276:H276)</f>
+        <f t="shared" ref="I276:I292" si="9">SUM(D276:H276)</f>
         <v>22</v>
       </c>
       <c r="J276" s="14" t="s">
@@ -50812,7 +50812,7 @@
         <v>10</v>
       </c>
       <c r="I381" s="37">
-        <f t="shared" ref="I381:I412" si="13">SUM(D381:H381)</f>
+        <f t="shared" ref="I381:I384" si="13">SUM(D381:H381)</f>
         <v>43</v>
       </c>
       <c r="J381" s="38" t="s">
@@ -53574,22 +53574,22 @@
         <v>1459</v>
       </c>
       <c r="D468" s="78">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E468" s="78">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F468" s="78">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G468" s="78">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H468" s="78">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I468" s="78">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J468" s="20" t="s">
         <v>1174</v>

--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -12,7 +12,6 @@
     <sheet name="OVERALL PERFORMANCE" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -5450,8 +5449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N553"/>
   <sheetViews>
-    <sheetView topLeftCell="A416" workbookViewId="0">
-      <selection activeCell="B431" sqref="B431"/>
+    <sheetView topLeftCell="A443" workbookViewId="0">
+      <selection activeCell="C468" sqref="C468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -38530,7 +38529,7 @@
   <dimension ref="A1:J553"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B461" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I468" sqref="I468"/>
+      <selection activeCell="F468" sqref="F468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -53580,7 +53579,7 @@
         <v>7</v>
       </c>
       <c r="F468" s="78">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G468" s="78">
         <v>9</v>

--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -38529,7 +38529,7 @@
   <dimension ref="A1:J553"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B461" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F468" sqref="F468"/>
+      <selection activeCell="F468" sqref="A446:J513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>

--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -5983,7 +5983,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="[$-14009]dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yy;@"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -6370,7 +6370,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -6719,19 +6719,20 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6991,8 +6992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N718"/>
   <sheetViews>
-    <sheetView topLeftCell="A539" workbookViewId="0">
-      <selection activeCell="F730" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -27095,11 +27096,11 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="468" spans="1:14" ht="12.75">
+    <row r="468" spans="1:14" ht="15">
       <c r="A468" s="20" t="s">
         <v>1231</v>
       </c>
-      <c r="B468" s="46" t="s">
+      <c r="B468" s="129" t="s">
         <v>1232</v>
       </c>
       <c r="C468" s="20">
@@ -37708,9 +37709,10 @@
   <hyperlinks>
     <hyperlink ref="B381" r:id="rId1"/>
     <hyperlink ref="B492" r:id="rId2"/>
+    <hyperlink ref="B468" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -37718,8 +37720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
-      <selection activeCell="A555" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
+      <selection activeCell="B468" sqref="B468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -45502,7 +45504,7 @@
         <v>1232</v>
       </c>
       <c r="B468" s="47">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="C468" s="46" t="s">
         <v>1443</v>

--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14029" uniqueCount="1984">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14029" uniqueCount="1985">
   <si>
     <t>Name</t>
   </si>
@@ -5974,6 +5974,9 @@
   </si>
   <si>
     <t>Cricviz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmotionWeaver: Multimodal Mood Detection from Faces and Words </t>
   </si>
 </sst>
 </file>
@@ -5985,7 +5988,7 @@
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="[$-14009]dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6175,6 +6178,31 @@
       <sz val="9"/>
       <color rgb="FF1155CC"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -6370,7 +6398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -6733,6 +6761,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6992,8 +7024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N718"/>
   <sheetViews>
-    <sheetView topLeftCell="A458" workbookViewId="0">
-      <selection activeCell="B468" sqref="B468"/>
+    <sheetView topLeftCell="A530" workbookViewId="0">
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -37720,8 +37752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A447" workbookViewId="0">
-      <selection activeCell="B468" sqref="B468"/>
+    <sheetView topLeftCell="A528" workbookViewId="0">
+      <selection activeCell="A549" sqref="A549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -49616,8 +49648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J717"/>
   <sheetViews>
-    <sheetView topLeftCell="A690" workbookViewId="0">
-      <selection activeCell="A718" sqref="A718:XFD751"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="D549" sqref="D549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15"/>
@@ -66889,7 +66921,7 @@
       <c r="B539" s="46" t="s">
         <v>1405</v>
       </c>
-      <c r="C539" s="84" t="s">
+      <c r="C539" s="133" t="s">
         <v>1488</v>
       </c>
       <c r="D539" s="51">
@@ -67017,8 +67049,8 @@
       <c r="B543" s="46" t="s">
         <v>1414</v>
       </c>
-      <c r="C543" s="86" t="s">
-        <v>1531</v>
+      <c r="C543" s="132" t="s">
+        <v>1984</v>
       </c>
       <c r="D543" s="51">
         <v>0</v>
@@ -67049,8 +67081,8 @@
       <c r="B544" s="46" t="s">
         <v>1416</v>
       </c>
-      <c r="C544" s="85" t="s">
-        <v>1471</v>
+      <c r="C544" s="131" t="s">
+        <v>1492</v>
       </c>
       <c r="D544" s="50">
         <v>7</v>
@@ -67082,7 +67114,7 @@
         <v>1419</v>
       </c>
       <c r="C545" s="84" t="s">
-        <v>1492</v>
+        <v>1528</v>
       </c>
       <c r="D545" s="51">
         <v>0</v>
@@ -67114,7 +67146,7 @@
         <v>1421</v>
       </c>
       <c r="C546" s="84" t="s">
-        <v>1528</v>
+        <v>1497</v>
       </c>
       <c r="D546" s="50">
         <v>0</v>
@@ -67145,8 +67177,8 @@
       <c r="B547" s="46" t="s">
         <v>1423</v>
       </c>
-      <c r="C547" s="84" t="s">
-        <v>1497</v>
+      <c r="C547" s="131" t="s">
+        <v>1492</v>
       </c>
       <c r="D547" s="51">
         <v>0</v>
@@ -67178,7 +67210,7 @@
         <v>1425</v>
       </c>
       <c r="C548" s="84" t="s">
-        <v>1492</v>
+        <v>1476</v>
       </c>
       <c r="D548" s="50">
         <v>0</v>
@@ -67209,8 +67241,8 @@
       <c r="B549" s="46" t="s">
         <v>1427</v>
       </c>
-      <c r="C549" s="84" t="s">
-        <v>1476</v>
+      <c r="C549" s="130" t="s">
+        <v>1531</v>
       </c>
       <c r="D549" s="51">
         <v>0</v>
@@ -72363,6 +72395,6 @@
     <hyperlink ref="B492" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="11580" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" r:id="rId1"/>
@@ -38368,8 +38368,8 @@
   <sheetPr/>
   <dimension ref="A1:E717"/>
   <sheetViews>
-    <sheetView topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="C551" sqref="C551:D551"/>
+    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
+      <selection activeCell="I543" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57142857142857" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -47492,7 +47492,7 @@
         <v>1425</v>
       </c>
       <c r="B548" s="54">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C548" s="49" t="s">
         <v>1833</v>
@@ -47560,7 +47560,7 @@
         <v>1435</v>
       </c>
       <c r="B552" s="54">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C552" s="49" t="s">
         <v>1833</v>
@@ -50266,8 +50266,8 @@
   <sheetPr/>
   <dimension ref="A1:J717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
-      <selection activeCell="P545" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="E548" sqref="E548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57142857142857" defaultRowHeight="15"/>
@@ -67831,7 +67831,7 @@
         <v>1865</v>
       </c>
       <c r="D548" s="54">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E548" s="54">
         <v>6</v>
@@ -67846,7 +67846,7 @@
         <v>7</v>
       </c>
       <c r="I548" s="54">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J548" s="49" t="s">
         <v>1403</v>
@@ -67959,22 +67959,22 @@
         <v>1865</v>
       </c>
       <c r="D552" s="54">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E552" s="54">
         <v>6</v>
       </c>
       <c r="F552" s="54">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G552" s="54">
         <v>7</v>
       </c>
       <c r="H552" s="54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I552" s="54">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="J552" s="49" t="s">
         <v>1403</v>

--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -38368,8 +38368,8 @@
   <sheetPr/>
   <dimension ref="A1:E717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A531" workbookViewId="0">
-      <selection activeCell="I543" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57142857142857" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -47509,7 +47509,7 @@
         <v>1427</v>
       </c>
       <c r="B549" s="56">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C549" s="49" t="s">
         <v>1833</v>

--- a/ML Portal.xlsx
+++ b/ML Portal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11580" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="11580" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PERSONAL INFORMATION" sheetId="1" r:id="rId1"/>
@@ -38368,8 +38368,8 @@
   <sheetPr/>
   <dimension ref="A1:E717"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="B549" sqref="B549"/>
+    <sheetView topLeftCell="A654" workbookViewId="0">
+      <selection activeCell="C675" sqref="C675:D675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57142857142857" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -49587,10 +49587,10 @@
         <v>90</v>
       </c>
       <c r="C675" s="71" t="s">
-        <v>1833</v>
+        <v>1839</v>
       </c>
       <c r="D675" s="71" t="s">
-        <v>1835</v>
+        <v>1837</v>
       </c>
       <c r="E675" s="104" t="s">
         <v>1446</v>
@@ -50266,8 +50266,8 @@
   <sheetPr/>
   <dimension ref="A1:J717"/>
   <sheetViews>
-    <sheetView topLeftCell="A525" workbookViewId="0">
-      <selection activeCell="E548" sqref="E548"/>
+    <sheetView tabSelected="1" topLeftCell="A666" workbookViewId="0">
+      <selection activeCell="S672" sqref="S672"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.57142857142857" defaultRowHeight="15"/>
@@ -71775,13 +71775,13 @@
         <v>1969</v>
       </c>
       <c r="D676" s="76">
+        <v>8</v>
+      </c>
+      <c r="E676" s="76">
+        <v>8</v>
+      </c>
+      <c r="F676" s="76">
         <v>7</v>
-      </c>
-      <c r="E676" s="76">
-        <v>7</v>
-      </c>
-      <c r="F676" s="76">
-        <v>6</v>
       </c>
       <c r="G676" s="77">
         <v>7</v>
@@ -71790,7 +71790,7 @@
         <v>7</v>
       </c>
       <c r="I676" s="77">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J676" s="77" t="s">
         <v>1446</v>
